--- a/England - submitted 19Jun25/incd_nums.xlsx
+++ b/England - submitted 19Jun25/incd_nums.xlsx
@@ -90,1496 +90,1496 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>4.2261686876048277</v>
+        <v>4.187004890163383</v>
       </c>
       <c r="B1" s="0">
-        <v>3.9720352699089849</v>
+        <v>3.9338131563546317</v>
       </c>
       <c r="C1" s="0">
-        <v>3.71047276813557</v>
+        <v>3.6957620609867816</v>
       </c>
       <c r="D1" s="0">
-        <v>3.570601439343799</v>
+        <v>3.5616985259838181</v>
       </c>
       <c r="E1" s="0">
-        <v>3.5257902962226617</v>
+        <v>3.5283814356794783</v>
       </c>
       <c r="F1" s="0">
-        <v>3.4755622816983442</v>
+        <v>3.4885445107536524</v>
       </c>
       <c r="G1" s="0">
-        <v>3.4273464430100464</v>
+        <v>3.4455482839708838</v>
       </c>
       <c r="H1" s="0">
-        <v>3.7087130251937817</v>
+        <v>3.7280907534894268</v>
       </c>
       <c r="I1" s="0">
-        <v>4.261766980474273</v>
+        <v>4.2838036314532193</v>
       </c>
       <c r="J1" s="0">
-        <v>4.7886725683623403</v>
+        <v>4.6899300980956662</v>
       </c>
       <c r="K1" s="0">
-        <v>5.153019066648441</v>
+        <v>4.5483138313665767</v>
       </c>
       <c r="L1" s="0">
-        <v>5.4508337270848015</v>
+        <v>4.5226400585873794</v>
       </c>
       <c r="M1" s="0">
-        <v>5.6834628564371759</v>
+        <v>4.5366331520816248</v>
       </c>
       <c r="N1" s="0">
-        <v>5.8611745893307008</v>
+        <v>4.5492425806008958</v>
       </c>
       <c r="O1" s="0">
-        <v>5.9973903356141056</v>
+        <v>4.5570145238991078</v>
       </c>
       <c r="P1" s="0">
-        <v>6.1065122704260952</v>
+        <v>4.5666215305076108</v>
       </c>
       <c r="Q1" s="0">
-        <v>6.196112272786344</v>
+        <v>4.5779724297372857</v>
       </c>
       <c r="R1" s="0">
-        <v>6.2734931870883281</v>
+        <v>4.5907636576004416</v>
       </c>
       <c r="S1" s="0">
-        <v>6.3418929663324244</v>
+        <v>4.6046742042636533</v>
       </c>
       <c r="T1" s="0">
-        <v>6.3997580606172813</v>
+        <v>4.6194366480010967</v>
       </c>
       <c r="U1" s="0">
-        <v>6.4492900815849152</v>
+        <v>4.6348455020065682</v>
       </c>
       <c r="V1" s="0">
-        <v>6.4922183802168592</v>
+        <v>4.650711858880789</v>
       </c>
       <c r="W1" s="0">
-        <v>6.5304881790639726</v>
+        <v>4.667291121754868</v>
       </c>
       <c r="X1" s="0">
-        <v>6.5651766667111495</v>
+        <v>4.6844491397569055</v>
       </c>
       <c r="Y1" s="0">
-        <v>6.5971325059146588</v>
+        <v>4.702077183345585</v>
       </c>
       <c r="Z1" s="0">
-        <v>6.6270222843728526</v>
+        <v>4.7200879756664005</v>
       </c>
       <c r="AA1" s="0">
-        <v>6.6553683304070255</v>
+        <v>4.7376241723857433</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>4.4838663636951965</v>
+        <v>4.4923075176230958</v>
       </c>
       <c r="B2" s="0">
-        <v>4.2289484059549727</v>
+        <v>4.2121043407440899</v>
       </c>
       <c r="C2" s="0">
-        <v>3.9720381763743036</v>
+        <v>3.9681052459669193</v>
       </c>
       <c r="D2" s="0">
-        <v>3.8287504028378359</v>
+        <v>3.8078058651868068</v>
       </c>
       <c r="E2" s="0">
-        <v>3.7993639990902395</v>
+        <v>3.7748128803261203</v>
       </c>
       <c r="F2" s="0">
-        <v>3.7491710731166434</v>
+        <v>3.7316344934341901</v>
       </c>
       <c r="G2" s="0">
-        <v>3.7047857287134374</v>
+        <v>3.6910722890456773</v>
       </c>
       <c r="H2" s="0">
-        <v>4.0337190973515957</v>
+        <v>3.9816451257014829</v>
       </c>
       <c r="I2" s="0">
-        <v>4.6377642181452394</v>
+        <v>4.5510421639583481</v>
       </c>
       <c r="J2" s="0">
-        <v>5.2150192957001069</v>
+        <v>5.0151850618754574</v>
       </c>
       <c r="K2" s="0">
-        <v>5.6320410418532481</v>
+        <v>4.9185537045384597</v>
       </c>
       <c r="L2" s="0">
-        <v>5.9623864026163353</v>
+        <v>4.9031598376899543</v>
       </c>
       <c r="M2" s="0">
-        <v>6.2520145218617591</v>
+        <v>4.9037287877681122</v>
       </c>
       <c r="N2" s="0">
-        <v>6.4778834878235623</v>
+        <v>4.9014815406578025</v>
       </c>
       <c r="O2" s="0">
-        <v>6.659522969975523</v>
+        <v>4.8972596329861133</v>
       </c>
       <c r="P2" s="0">
-        <v>6.8070268840289803</v>
+        <v>4.8975707712282253</v>
       </c>
       <c r="Q2" s="0">
-        <v>6.9264510472321188</v>
+        <v>4.9025373849241749</v>
       </c>
       <c r="R2" s="0">
-        <v>7.0237337269537212</v>
+        <v>4.9179570837700481</v>
       </c>
       <c r="S2" s="0">
-        <v>7.1055993443690149</v>
+        <v>4.9347791707953297</v>
       </c>
       <c r="T2" s="0">
-        <v>7.1694699493655527</v>
+        <v>4.9525834780300961</v>
       </c>
       <c r="U2" s="0">
-        <v>7.2206319538860901</v>
+        <v>4.9710744605651938</v>
       </c>
       <c r="V2" s="0">
-        <v>7.2759007747518112</v>
+        <v>4.9900094084094411</v>
       </c>
       <c r="W2" s="0">
-        <v>7.3195767880121601</v>
+        <v>5.0096424325591729</v>
       </c>
       <c r="X2" s="0">
-        <v>7.365680655500543</v>
+        <v>5.0298214718937562</v>
       </c>
       <c r="Y2" s="0">
-        <v>7.3925272845624308</v>
+        <v>5.0504294076313245</v>
       </c>
       <c r="Z2" s="0">
-        <v>7.4219593731244835</v>
+        <v>5.0713759027236707</v>
       </c>
       <c r="AA2" s="0">
-        <v>7.4593153454245984</v>
+        <v>5.0925902819016686</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>4.7820713581914571</v>
+        <v>4.8222834756931308</v>
       </c>
       <c r="B3" s="0">
-        <v>4.5574010528522679</v>
+        <v>4.5902583014362808</v>
       </c>
       <c r="C3" s="0">
-        <v>4.3555963083948743</v>
+        <v>4.3678679561513052</v>
       </c>
       <c r="D3" s="0">
-        <v>4.2367700684205616</v>
+        <v>4.2421293839211067</v>
       </c>
       <c r="E3" s="0">
-        <v>4.208451288592558</v>
+        <v>4.2120242151869531</v>
       </c>
       <c r="F3" s="0">
-        <v>4.1686946574811286</v>
+        <v>4.172184377070784</v>
       </c>
       <c r="G3" s="0">
-        <v>4.1264545678905709</v>
+        <v>4.1259128869619488</v>
       </c>
       <c r="H3" s="0">
-        <v>4.4583646310060869</v>
+        <v>4.4052710979494476</v>
       </c>
       <c r="I3" s="0">
-        <v>5.1160010288809143</v>
+        <v>4.9638871472741757</v>
       </c>
       <c r="J3" s="0">
-        <v>5.7626976399095895</v>
+        <v>5.3838477036968921</v>
       </c>
       <c r="K3" s="0">
-        <v>6.2264412890002623</v>
+        <v>5.2541521393725876</v>
       </c>
       <c r="L3" s="0">
-        <v>6.6161724140322962</v>
+        <v>5.2408308832548629</v>
       </c>
       <c r="M3" s="0">
-        <v>6.9380671211021978</v>
+        <v>5.2681488663721678</v>
       </c>
       <c r="N3" s="0">
-        <v>7.2027803856507822</v>
+        <v>5.2919153316665515</v>
       </c>
       <c r="O3" s="0">
-        <v>7.4162652873541104</v>
+        <v>5.3077220434578116</v>
       </c>
       <c r="P3" s="0">
-        <v>7.5927170654037397</v>
+        <v>5.3235391024829824</v>
       </c>
       <c r="Q3" s="0">
-        <v>7.7387547865379309</v>
+        <v>5.3397173301622365</v>
       </c>
       <c r="R3" s="0">
-        <v>7.8599822749253789</v>
+        <v>5.3563266715605158</v>
       </c>
       <c r="S3" s="0">
-        <v>7.962132473004865</v>
+        <v>5.3733298139737267</v>
       </c>
       <c r="T3" s="0">
-        <v>8.0501669569581082</v>
+        <v>5.3906709841129938</v>
       </c>
       <c r="U3" s="0">
-        <v>8.1256275046975492</v>
+        <v>5.4083020438811964</v>
       </c>
       <c r="V3" s="0">
-        <v>8.1871211901903465</v>
+        <v>5.4261442607357946</v>
       </c>
       <c r="W3" s="0">
-        <v>8.2346481680960117</v>
+        <v>5.4445997392451755</v>
       </c>
       <c r="X3" s="0">
-        <v>8.2817461680516899</v>
+        <v>5.4635885239270303</v>
       </c>
       <c r="Y3" s="0">
-        <v>8.3254214293806097</v>
+        <v>5.4830388679201478</v>
       </c>
       <c r="Z3" s="0">
-        <v>8.3656445310237704</v>
+        <v>5.5028880384920233</v>
       </c>
       <c r="AA3" s="0">
-        <v>8.4032565381905151</v>
+        <v>5.5230815097037009</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>4.2261686876048277</v>
+        <v>4.187004890163383</v>
       </c>
       <c r="B4" s="0">
-        <v>3.9720352699089849</v>
+        <v>3.9338131563546317</v>
       </c>
       <c r="C4" s="0">
-        <v>3.71047276813557</v>
+        <v>3.6957620609867816</v>
       </c>
       <c r="D4" s="0">
-        <v>3.570601439343799</v>
+        <v>3.5616985259838181</v>
       </c>
       <c r="E4" s="0">
-        <v>3.5257902962226617</v>
+        <v>3.5283814356794783</v>
       </c>
       <c r="F4" s="0">
-        <v>3.4755622816983442</v>
+        <v>3.4885445107536524</v>
       </c>
       <c r="G4" s="0">
-        <v>3.4273464430100464</v>
+        <v>3.4455482839708838</v>
       </c>
       <c r="H4" s="0">
-        <v>3.7087130251937817</v>
+        <v>3.7280907534894268</v>
       </c>
       <c r="I4" s="0">
-        <v>4.261766980474273</v>
+        <v>4.2838036314532193</v>
       </c>
       <c r="J4" s="0">
-        <v>4.7886725683623403</v>
+        <v>4.6899300980956662</v>
       </c>
       <c r="K4" s="0">
-        <v>5.153019066648441</v>
+        <v>4.5483138313665767</v>
       </c>
       <c r="L4" s="0">
-        <v>5.4508332803857096</v>
+        <v>4.5226400585873794</v>
       </c>
       <c r="M4" s="0">
-        <v>5.666945962808871</v>
+        <v>4.5366331004009748</v>
       </c>
       <c r="N4" s="0">
-        <v>5.7640995722934587</v>
+        <v>4.5435701863588935</v>
       </c>
       <c r="O4" s="0">
-        <v>5.7734496871766421</v>
+        <v>4.5234742958718082</v>
       </c>
       <c r="P4" s="0">
-        <v>5.7267848127600409</v>
+        <v>4.4869423540081073</v>
       </c>
       <c r="Q4" s="0">
-        <v>5.6582602436946239</v>
+        <v>4.4390123669172521</v>
       </c>
       <c r="R4" s="0">
-        <v>5.6102037964023337</v>
+        <v>4.3837363697983145</v>
       </c>
       <c r="S4" s="0">
-        <v>5.573989020220532</v>
+        <v>4.3247087089080472</v>
       </c>
       <c r="T4" s="0">
-        <v>5.5452876979200889</v>
+        <v>4.2648515638301472</v>
       </c>
       <c r="U4" s="0">
-        <v>5.5221427021852723</v>
+        <v>4.2062893356611024</v>
       </c>
       <c r="V4" s="0">
-        <v>5.5032169674131781</v>
+        <v>4.1538289776600452</v>
       </c>
       <c r="W4" s="0">
-        <v>5.4879926948614886</v>
+        <v>4.1163058726018793</v>
       </c>
       <c r="X4" s="0">
-        <v>5.475482669770023</v>
+        <v>4.0886881340932542</v>
       </c>
       <c r="Y4" s="0">
-        <v>5.4648832103967697</v>
+        <v>4.0678767937934701</v>
       </c>
       <c r="Z4" s="0">
-        <v>5.4561581349383363</v>
+        <v>4.0521562661277715</v>
       </c>
       <c r="AA4" s="0">
-        <v>5.4489844175848683</v>
+        <v>4.0402965152850205</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>4.4838663636951965</v>
+        <v>4.4923075176230958</v>
       </c>
       <c r="B5" s="0">
-        <v>4.2289484059549727</v>
+        <v>4.2121043407440899</v>
       </c>
       <c r="C5" s="0">
-        <v>3.9720381763743036</v>
+        <v>3.9681052459669193</v>
       </c>
       <c r="D5" s="0">
-        <v>3.8287504028378359</v>
+        <v>3.8078058651868068</v>
       </c>
       <c r="E5" s="0">
-        <v>3.7993639990902395</v>
+        <v>3.7748128803261203</v>
       </c>
       <c r="F5" s="0">
-        <v>3.7491710731166434</v>
+        <v>3.7316344934341901</v>
       </c>
       <c r="G5" s="0">
-        <v>3.7047857287134374</v>
+        <v>3.6910722890456773</v>
       </c>
       <c r="H5" s="0">
-        <v>4.0337190973515957</v>
+        <v>3.9816451257014829</v>
       </c>
       <c r="I5" s="0">
-        <v>4.6377642181452394</v>
+        <v>4.5510421639583481</v>
       </c>
       <c r="J5" s="0">
-        <v>5.2150192957001069</v>
+        <v>5.0151850618754574</v>
       </c>
       <c r="K5" s="0">
-        <v>5.6320410418532481</v>
+        <v>4.9185537045384597</v>
       </c>
       <c r="L5" s="0">
-        <v>5.9623857228657062</v>
+        <v>4.9031598376899543</v>
       </c>
       <c r="M5" s="0">
-        <v>6.2326701836264515</v>
+        <v>4.9037288391861669</v>
       </c>
       <c r="N5" s="0">
-        <v>6.3640490264895506</v>
+        <v>4.8952767772525903</v>
       </c>
       <c r="O5" s="0">
-        <v>6.3789417460953342</v>
+        <v>4.8605330668386184</v>
       </c>
       <c r="P5" s="0">
-        <v>6.3301657694131528</v>
+        <v>4.8089779264734194</v>
       </c>
       <c r="Q5" s="0">
-        <v>6.255709560875542</v>
+        <v>4.7535949638198929</v>
       </c>
       <c r="R5" s="0">
-        <v>6.1972031062206074</v>
+        <v>4.6946261022861258</v>
       </c>
       <c r="S5" s="0">
-        <v>6.1522917577574745</v>
+        <v>4.6315496863632593</v>
       </c>
       <c r="T5" s="0">
-        <v>6.1157964393053401</v>
+        <v>4.567650669165066</v>
       </c>
       <c r="U5" s="0">
-        <v>6.0829812175169549</v>
+        <v>4.5053417837739076</v>
       </c>
       <c r="V5" s="0">
-        <v>6.0568743960731641</v>
+        <v>4.4496467643056103</v>
       </c>
       <c r="W5" s="0">
-        <v>6.0348204084613144</v>
+        <v>4.4097546667366165</v>
       </c>
       <c r="X5" s="0">
-        <v>6.0160612957959669</v>
+        <v>4.3808721832763977</v>
       </c>
       <c r="Y5" s="0">
-        <v>6.0059373172723856</v>
+        <v>4.359723749176645</v>
       </c>
       <c r="Z5" s="0">
-        <v>5.9980249271404231</v>
+        <v>4.34430053492318</v>
       </c>
       <c r="AA5" s="0">
-        <v>5.9919297470969246</v>
+        <v>4.3331180300725265</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>4.7820713581914571</v>
+        <v>4.8222834756931308</v>
       </c>
       <c r="B6" s="0">
-        <v>4.5574010528522679</v>
+        <v>4.5902583014362808</v>
       </c>
       <c r="C6" s="0">
-        <v>4.3555963083948743</v>
+        <v>4.3678679561513052</v>
       </c>
       <c r="D6" s="0">
-        <v>4.2367700684205616</v>
+        <v>4.2421293839211067</v>
       </c>
       <c r="E6" s="0">
-        <v>4.208451288592558</v>
+        <v>4.2120242151869531</v>
       </c>
       <c r="F6" s="0">
-        <v>4.1686946574811286</v>
+        <v>4.172184377070784</v>
       </c>
       <c r="G6" s="0">
-        <v>4.1264545678905709</v>
+        <v>4.1259128869619488</v>
       </c>
       <c r="H6" s="0">
-        <v>4.4583646310060869</v>
+        <v>4.4052710979494476</v>
       </c>
       <c r="I6" s="0">
-        <v>5.1160010288809143</v>
+        <v>4.9638871472741757</v>
       </c>
       <c r="J6" s="0">
-        <v>5.7626976399095895</v>
+        <v>5.3838477036968921</v>
       </c>
       <c r="K6" s="0">
-        <v>6.2264412890002623</v>
+        <v>5.2541521393725876</v>
       </c>
       <c r="L6" s="0">
-        <v>6.616172064434898</v>
+        <v>5.2408308832548629</v>
       </c>
       <c r="M6" s="0">
-        <v>6.9142374783244387</v>
+        <v>5.2681488709498563</v>
       </c>
       <c r="N6" s="0">
-        <v>7.0651789590855181</v>
+        <v>5.2856670191728732</v>
       </c>
       <c r="O6" s="0">
-        <v>7.0872696640723962</v>
+        <v>5.2707696197773304</v>
       </c>
       <c r="P6" s="0">
-        <v>7.0216300101732187</v>
+        <v>5.2358729273042064</v>
       </c>
       <c r="Q6" s="0">
-        <v>6.9191416957572258</v>
+        <v>5.1870042363948663</v>
       </c>
       <c r="R6" s="0">
-        <v>6.8518796856052155</v>
+        <v>5.1289057882234541</v>
       </c>
       <c r="S6" s="0">
-        <v>6.8010060384427558</v>
+        <v>5.0656940652706188</v>
       </c>
       <c r="T6" s="0">
-        <v>6.7596875258894382</v>
+        <v>5.000695720616263</v>
       </c>
       <c r="U6" s="0">
-        <v>6.7304642442772344</v>
+        <v>4.9363470302533088</v>
       </c>
       <c r="V6" s="0">
-        <v>6.7081319739484808</v>
+        <v>4.878023363146343</v>
       </c>
       <c r="W6" s="0">
-        <v>6.6803280071594724</v>
+        <v>4.8355733901288351</v>
       </c>
       <c r="X6" s="0">
-        <v>6.6595289308826393</v>
+        <v>4.8035335552687828</v>
       </c>
       <c r="Y6" s="0">
-        <v>6.6459629198106907</v>
+        <v>4.778604512446635</v>
       </c>
       <c r="Z6" s="0">
-        <v>6.6349405614240169</v>
+        <v>4.7590739206058332</v>
       </c>
       <c r="AA6" s="0">
-        <v>6.6261895527565793</v>
+        <v>4.7437458425332348</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>4.2261686876048277</v>
+        <v>4.187004890163383</v>
       </c>
       <c r="B7" s="0">
-        <v>3.9720352699089849</v>
+        <v>3.9338131563546317</v>
       </c>
       <c r="C7" s="0">
-        <v>3.71047276813557</v>
+        <v>3.6957620609867816</v>
       </c>
       <c r="D7" s="0">
-        <v>3.570601439343799</v>
+        <v>3.5616985259838181</v>
       </c>
       <c r="E7" s="0">
-        <v>3.5257902962226617</v>
+        <v>3.5283814356794783</v>
       </c>
       <c r="F7" s="0">
-        <v>3.4755622816983442</v>
+        <v>3.4885445107536524</v>
       </c>
       <c r="G7" s="0">
-        <v>3.4273464430100464</v>
+        <v>3.4455482839708838</v>
       </c>
       <c r="H7" s="0">
-        <v>3.7087130251937817</v>
+        <v>3.7280907534894268</v>
       </c>
       <c r="I7" s="0">
-        <v>4.261766980474273</v>
+        <v>4.2838036314532193</v>
       </c>
       <c r="J7" s="0">
-        <v>4.7886725683623403</v>
+        <v>4.6899300980956662</v>
       </c>
       <c r="K7" s="0">
-        <v>5.153019066648441</v>
+        <v>4.5483138313665767</v>
       </c>
       <c r="L7" s="0">
-        <v>5.4508332803754502</v>
+        <v>4.5226400585873794</v>
       </c>
       <c r="M7" s="0">
-        <v>5.6666585669492573</v>
+        <v>4.5366331002886131</v>
       </c>
       <c r="N7" s="0">
-        <v>5.7628481118414845</v>
+        <v>4.5434608907897074</v>
       </c>
       <c r="O7" s="0">
-        <v>5.771218806295324</v>
+        <v>4.5230148176977103</v>
       </c>
       <c r="P7" s="0">
-        <v>5.7237506024092255</v>
+        <v>4.4861594540904353</v>
       </c>
       <c r="Q7" s="0">
-        <v>5.6549497422292436</v>
+        <v>4.4379884289364737</v>
       </c>
       <c r="R7" s="0">
-        <v>5.6076507123427985</v>
+        <v>4.3825504341917254</v>
       </c>
       <c r="S7" s="0">
-        <v>5.5723327910136495</v>
+        <v>4.3234318551372581</v>
       </c>
       <c r="T7" s="0">
-        <v>5.5444288370671089</v>
+        <v>4.2635471961423397</v>
       </c>
       <c r="U7" s="0">
-        <v>5.5219830606116354</v>
+        <v>4.2050137962207197</v>
       </c>
       <c r="V7" s="0">
-        <v>5.5036710042854464</v>
+        <v>4.1527461580563205</v>
       </c>
       <c r="W7" s="0">
-        <v>5.4889905907627368</v>
+        <v>4.1157160397030443</v>
       </c>
       <c r="X7" s="0">
-        <v>5.4771825755204997</v>
+        <v>4.0885999497234469</v>
       </c>
       <c r="Y7" s="0">
-        <v>5.4670688062724224</v>
+        <v>4.0682324222504507</v>
       </c>
       <c r="Z7" s="0">
-        <v>5.4587921019887311</v>
+        <v>4.0529022199932259</v>
       </c>
       <c r="AA7" s="0">
-        <v>5.4520379812516273</v>
+        <v>4.0413902118203735</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>4.4838663636951965</v>
+        <v>4.4923075176230958</v>
       </c>
       <c r="B8" s="0">
-        <v>4.2289484059549727</v>
+        <v>4.2121043407440899</v>
       </c>
       <c r="C8" s="0">
-        <v>3.9720381763743036</v>
+        <v>3.9681052459669193</v>
       </c>
       <c r="D8" s="0">
-        <v>3.8287504028378359</v>
+        <v>3.8078058651868068</v>
       </c>
       <c r="E8" s="0">
-        <v>3.7993639990902395</v>
+        <v>3.7748128803261203</v>
       </c>
       <c r="F8" s="0">
-        <v>3.7491710731166434</v>
+        <v>3.7316344934341901</v>
       </c>
       <c r="G8" s="0">
-        <v>3.7047857287134374</v>
+        <v>3.6910722890456773</v>
       </c>
       <c r="H8" s="0">
-        <v>4.0337190973515957</v>
+        <v>3.9816451257014829</v>
       </c>
       <c r="I8" s="0">
-        <v>4.6377642181452394</v>
+        <v>4.5510421639583481</v>
       </c>
       <c r="J8" s="0">
-        <v>5.2150192957001069</v>
+        <v>5.0151850618754574</v>
       </c>
       <c r="K8" s="0">
-        <v>5.6320410418532481</v>
+        <v>4.9185537045384597</v>
       </c>
       <c r="L8" s="0">
-        <v>5.9623857228657062</v>
+        <v>4.9031598376899543</v>
       </c>
       <c r="M8" s="0">
-        <v>6.2323426997511993</v>
+        <v>4.9037288391645522</v>
       </c>
       <c r="N8" s="0">
-        <v>6.3626265505630251</v>
+        <v>4.8951337304179807</v>
       </c>
       <c r="O8" s="0">
-        <v>6.376314100980097</v>
+        <v>4.8599232192010877</v>
       </c>
       <c r="P8" s="0">
-        <v>6.3264165895918429</v>
+        <v>4.8079215367455426</v>
       </c>
       <c r="Q8" s="0">
-        <v>6.2523757642138298</v>
+        <v>4.7523366497658115</v>
       </c>
       <c r="R8" s="0">
-        <v>6.1945786994368115</v>
+        <v>4.6931684033117085</v>
       </c>
       <c r="S8" s="0">
-        <v>6.1501704910532915</v>
+        <v>4.6299833678750968</v>
       </c>
       <c r="T8" s="0">
-        <v>6.1145887989223917</v>
+        <v>4.566056697249139</v>
       </c>
       <c r="U8" s="0">
-        <v>6.0826513690958688</v>
+        <v>4.5037913280835493</v>
       </c>
       <c r="V8" s="0">
-        <v>6.0572544082429296</v>
+        <v>4.4483395766621516</v>
       </c>
       <c r="W8" s="0">
-        <v>6.0358363185639421</v>
+        <v>4.4090559966952334</v>
       </c>
       <c r="X8" s="0">
-        <v>6.0176521736731345</v>
+        <v>4.3807960741294041</v>
       </c>
       <c r="Y8" s="0">
-        <v>6.007904211795406</v>
+        <v>4.3601997080864265</v>
       </c>
       <c r="Z8" s="0">
-        <v>6.0004282860022249</v>
+        <v>4.3452603274457875</v>
       </c>
       <c r="AA8" s="0">
-        <v>5.9947420054178746</v>
+        <v>4.3345056985128947</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>4.7820713581914571</v>
+        <v>4.8222834756931308</v>
       </c>
       <c r="B9" s="0">
-        <v>4.5574010528522679</v>
+        <v>4.5902583014362808</v>
       </c>
       <c r="C9" s="0">
-        <v>4.3555963083948743</v>
+        <v>4.3678679561513052</v>
       </c>
       <c r="D9" s="0">
-        <v>4.2367700684205616</v>
+        <v>4.2421293839211067</v>
       </c>
       <c r="E9" s="0">
-        <v>4.208451288592558</v>
+        <v>4.2120242151869531</v>
       </c>
       <c r="F9" s="0">
-        <v>4.1686946574811286</v>
+        <v>4.172184377070784</v>
       </c>
       <c r="G9" s="0">
-        <v>4.1264545678905709</v>
+        <v>4.1259128869619488</v>
       </c>
       <c r="H9" s="0">
-        <v>4.4583646310060869</v>
+        <v>4.4052710979494476</v>
       </c>
       <c r="I9" s="0">
-        <v>5.1160010288809143</v>
+        <v>4.9638871472741757</v>
       </c>
       <c r="J9" s="0">
-        <v>5.7626976399095895</v>
+        <v>5.3838477036968921</v>
       </c>
       <c r="K9" s="0">
-        <v>6.2264412890002623</v>
+        <v>5.2541521393725876</v>
       </c>
       <c r="L9" s="0">
-        <v>6.6161720643601099</v>
+        <v>5.2408308832548629</v>
       </c>
       <c r="M9" s="0">
-        <v>6.9139424939969469</v>
+        <v>5.2681488709233832</v>
       </c>
       <c r="N9" s="0">
-        <v>7.0637737900794191</v>
+        <v>5.2855642339499607</v>
       </c>
       <c r="O9" s="0">
-        <v>7.0847326273204256</v>
+        <v>5.2703365398076665</v>
       </c>
       <c r="P9" s="0">
-        <v>7.018138732050387</v>
+        <v>5.2351332725520896</v>
       </c>
       <c r="Q9" s="0">
-        <v>6.9153076045505184</v>
+        <v>5.1860334365977421</v>
       </c>
       <c r="R9" s="0">
-        <v>6.8487426559748057</v>
+        <v>5.1277756702403616</v>
       </c>
       <c r="S9" s="0">
-        <v>6.7988503620213194</v>
+        <v>5.0644692882675422</v>
       </c>
       <c r="T9" s="0">
-        <v>6.7584422269503355</v>
+        <v>4.9994346600506754</v>
       </c>
       <c r="U9" s="0">
-        <v>6.7301112810857902</v>
+        <v>4.9351026348924325</v>
       </c>
       <c r="V9" s="0">
-        <v>6.7084686281334989</v>
+        <v>4.8769528076575428</v>
       </c>
       <c r="W9" s="0">
-        <v>6.6813646603009955</v>
+        <v>4.8349655633883302</v>
       </c>
       <c r="X9" s="0">
-        <v>6.6608911235504031</v>
+        <v>4.8033994158429296</v>
       </c>
       <c r="Y9" s="0">
-        <v>6.6478168498754551</v>
+        <v>4.7788926950879507</v>
       </c>
       <c r="Z9" s="0">
-        <v>6.6372363359548965</v>
+        <v>4.7597381322094883</v>
       </c>
       <c r="AA9" s="0">
-        <v>6.6288987303389666</v>
+        <v>4.7447500790567583</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>4.2261686876048277</v>
+        <v>4.187004890163383</v>
       </c>
       <c r="B10" s="0">
-        <v>3.9720352699089849</v>
+        <v>3.9338131563546317</v>
       </c>
       <c r="C10" s="0">
-        <v>3.71047276813557</v>
+        <v>3.6957620609867816</v>
       </c>
       <c r="D10" s="0">
-        <v>3.570601439343799</v>
+        <v>3.5616985259838181</v>
       </c>
       <c r="E10" s="0">
-        <v>3.5257902962226617</v>
+        <v>3.5283814356794783</v>
       </c>
       <c r="F10" s="0">
-        <v>3.4755622816983442</v>
+        <v>3.4885445107536524</v>
       </c>
       <c r="G10" s="0">
-        <v>3.4273464430100464</v>
+        <v>3.4455482839708838</v>
       </c>
       <c r="H10" s="0">
-        <v>3.7087130251937817</v>
+        <v>3.7280907534894268</v>
       </c>
       <c r="I10" s="0">
-        <v>4.261766980474273</v>
+        <v>4.2838036314532193</v>
       </c>
       <c r="J10" s="0">
-        <v>4.7886725683623403</v>
+        <v>4.6899300980956662</v>
       </c>
       <c r="K10" s="0">
-        <v>5.153019066648441</v>
+        <v>4.5483138313665767</v>
       </c>
       <c r="L10" s="0">
-        <v>5.4508332803677559</v>
+        <v>4.5226400585873794</v>
       </c>
       <c r="M10" s="0">
-        <v>5.6639808152553961</v>
+        <v>4.5366331002776708</v>
       </c>
       <c r="N10" s="0">
-        <v>5.7314509738647024</v>
+        <v>4.5424675105794332</v>
       </c>
       <c r="O10" s="0">
-        <v>5.6687101201195382</v>
+        <v>4.5110051523770034</v>
       </c>
       <c r="P10" s="0">
-        <v>5.5182194631553587</v>
+        <v>4.4457228820471233</v>
       </c>
       <c r="Q10" s="0">
-        <v>5.323793793320335</v>
+        <v>4.3539853937469184</v>
       </c>
       <c r="R10" s="0">
-        <v>5.1616916155087411</v>
+        <v>4.2453291031517502</v>
       </c>
       <c r="S10" s="0">
-        <v>5.0451253698450707</v>
+        <v>4.1286704776475958</v>
       </c>
       <c r="T10" s="0">
-        <v>4.9638252431746324</v>
+        <v>4.0110552695104795</v>
       </c>
       <c r="U10" s="0">
-        <v>4.906422612124361</v>
+        <v>3.8973915004707118</v>
       </c>
       <c r="V10" s="0">
-        <v>4.8616047120075923</v>
+        <v>3.794703651546405</v>
       </c>
       <c r="W10" s="0">
-        <v>4.8314221727116973</v>
+        <v>3.7170197636840232</v>
       </c>
       <c r="X10" s="0">
-        <v>4.8108000254313472</v>
+        <v>3.6616947105381978</v>
       </c>
       <c r="Y10" s="0">
-        <v>4.7963917993867149</v>
+        <v>3.6231198639643991</v>
       </c>
       <c r="Z10" s="0">
-        <v>4.7856497032772616</v>
+        <v>3.5964199961020533</v>
       </c>
       <c r="AA10" s="0">
-        <v>4.7747379494977551</v>
+        <v>3.5779200376886986</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>4.4838663636951965</v>
+        <v>4.4923075176230958</v>
       </c>
       <c r="B11" s="0">
-        <v>4.2289484059549727</v>
+        <v>4.2121043407440899</v>
       </c>
       <c r="C11" s="0">
-        <v>3.9720381763743036</v>
+        <v>3.9681052459669193</v>
       </c>
       <c r="D11" s="0">
-        <v>3.8287504028378359</v>
+        <v>3.8078058651868068</v>
       </c>
       <c r="E11" s="0">
-        <v>3.7993639990902395</v>
+        <v>3.7748128803261203</v>
       </c>
       <c r="F11" s="0">
-        <v>3.7491710731166434</v>
+        <v>3.7316344934341901</v>
       </c>
       <c r="G11" s="0">
-        <v>3.7047857287134374</v>
+        <v>3.6910722890456773</v>
       </c>
       <c r="H11" s="0">
-        <v>4.0337190973515957</v>
+        <v>3.9816451257014829</v>
       </c>
       <c r="I11" s="0">
-        <v>4.6377642181452394</v>
+        <v>4.5510421639583481</v>
       </c>
       <c r="J11" s="0">
-        <v>5.2150192957001069</v>
+        <v>5.0151850618754574</v>
       </c>
       <c r="K11" s="0">
-        <v>5.6320410418532481</v>
+        <v>4.9185537045384597</v>
       </c>
       <c r="L11" s="0">
-        <v>5.9623857228603256</v>
+        <v>4.9031598376899543</v>
       </c>
       <c r="M11" s="0">
-        <v>6.2273774153207535</v>
+        <v>4.9037288391591485</v>
       </c>
       <c r="N11" s="0">
-        <v>6.3202091949411443</v>
+        <v>4.8933899607967275</v>
       </c>
       <c r="O11" s="0">
-        <v>6.2385985550115768</v>
+        <v>4.8417913256970975</v>
       </c>
       <c r="P11" s="0">
-        <v>6.0566841465632484</v>
+        <v>4.7624075328202116</v>
       </c>
       <c r="Q11" s="0">
-        <v>5.8266356526034366</v>
+        <v>4.670209056961161</v>
       </c>
       <c r="R11" s="0">
-        <v>5.6433131770832183</v>
+        <v>4.5629740128274374</v>
       </c>
       <c r="S11" s="0">
-        <v>5.5033145601670848</v>
+        <v>4.4492843932438246</v>
       </c>
       <c r="T11" s="0">
-        <v>5.4050319382381726</v>
+        <v>4.2938714070791502</v>
       </c>
       <c r="U11" s="0">
-        <v>5.3429744964860557</v>
+        <v>4.1705438068400014</v>
       </c>
       <c r="V11" s="0">
-        <v>5.3033317371227637</v>
+        <v>4.0683451517530678</v>
       </c>
       <c r="W11" s="0">
-        <v>5.2703401423364529</v>
+        <v>3.9912903494582706</v>
       </c>
       <c r="X11" s="0">
-        <v>5.2448079056235875</v>
+        <v>3.9369315322031162</v>
       </c>
       <c r="Y11" s="0">
-        <v>5.2308061946705884</v>
+        <v>3.8993422487062102</v>
       </c>
       <c r="Z11" s="0">
-        <v>5.2181249440099799</v>
+        <v>3.8734581985564422</v>
       </c>
       <c r="AA11" s="0">
-        <v>5.2119532719934503</v>
+        <v>3.8555615086748203</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>4.7820713581914571</v>
+        <v>4.8222834756931308</v>
       </c>
       <c r="B12" s="0">
-        <v>4.5574010528522679</v>
+        <v>4.5902583014362808</v>
       </c>
       <c r="C12" s="0">
-        <v>4.3555963083948743</v>
+        <v>4.3678679561513052</v>
       </c>
       <c r="D12" s="0">
-        <v>4.2367700684205616</v>
+        <v>4.2421293839211067</v>
       </c>
       <c r="E12" s="0">
-        <v>4.208451288592558</v>
+        <v>4.2120242151869531</v>
       </c>
       <c r="F12" s="0">
-        <v>4.1686946574811286</v>
+        <v>4.172184377070784</v>
       </c>
       <c r="G12" s="0">
-        <v>4.1264545678905709</v>
+        <v>4.1259128869619488</v>
       </c>
       <c r="H12" s="0">
-        <v>4.4583646310060869</v>
+        <v>4.4052710979494476</v>
       </c>
       <c r="I12" s="0">
-        <v>5.1160010288809143</v>
+        <v>4.9638871472741757</v>
       </c>
       <c r="J12" s="0">
-        <v>5.7626976399095895</v>
+        <v>5.3838477036968921</v>
       </c>
       <c r="K12" s="0">
-        <v>6.2264412890002623</v>
+        <v>5.2541521393725876</v>
       </c>
       <c r="L12" s="0">
-        <v>6.6161720643427131</v>
+        <v>5.2408308832548629</v>
       </c>
       <c r="M12" s="0">
-        <v>6.9103957842524375</v>
+        <v>5.2681488709182789</v>
       </c>
       <c r="N12" s="0">
-        <v>7.0168201200482789</v>
+        <v>5.2843239672128348</v>
       </c>
       <c r="O12" s="0">
-        <v>6.9362428902485691</v>
+        <v>5.2546932665737174</v>
       </c>
       <c r="P12" s="0">
-        <v>6.7265449011444227</v>
+        <v>5.1804398633076225</v>
       </c>
       <c r="Q12" s="0">
-        <v>6.4645741737702771</v>
+        <v>5.0688398249647788</v>
       </c>
       <c r="R12" s="0">
-        <v>6.2544563183436388</v>
+        <v>4.9314512878898693</v>
       </c>
       <c r="S12" s="0">
-        <v>6.1034775624960851</v>
+        <v>4.7801156304947536</v>
       </c>
       <c r="T12" s="0">
-        <v>5.9983765404496978</v>
+        <v>4.6249136937161008</v>
       </c>
       <c r="U12" s="0">
-        <v>5.9259592611024106</v>
+        <v>4.4738060380583722</v>
       </c>
       <c r="V12" s="0">
-        <v>5.8742351946202653</v>
+        <v>4.33546940519083</v>
       </c>
       <c r="W12" s="0">
-        <v>5.8342217296420875</v>
+        <v>4.2267913198579778</v>
       </c>
       <c r="X12" s="0">
-        <v>5.8044986432636563</v>
+        <v>4.1463068310143516</v>
       </c>
       <c r="Y12" s="0">
-        <v>5.7829849265839322</v>
+        <v>4.088146418582995</v>
       </c>
       <c r="Z12" s="0">
-        <v>5.7672954134848009</v>
+        <v>4.0465324316231044</v>
       </c>
       <c r="AA12" s="0">
-        <v>5.7558222363779112</v>
+        <v>4.0211644646944436</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>4.2261686876048277</v>
+        <v>4.187004890163383</v>
       </c>
       <c r="B13" s="0">
-        <v>3.9720352699089849</v>
+        <v>3.9338131563546317</v>
       </c>
       <c r="C13" s="0">
-        <v>3.71047276813557</v>
+        <v>3.6957620609867816</v>
       </c>
       <c r="D13" s="0">
-        <v>3.570601439343799</v>
+        <v>3.5616985259838181</v>
       </c>
       <c r="E13" s="0">
-        <v>3.5257902962226617</v>
+        <v>3.5283814356794783</v>
       </c>
       <c r="F13" s="0">
-        <v>3.4755622816983442</v>
+        <v>3.4885445107536524</v>
       </c>
       <c r="G13" s="0">
-        <v>3.4273464430100464</v>
+        <v>3.4455482839708838</v>
       </c>
       <c r="H13" s="0">
-        <v>3.7087130251937817</v>
+        <v>3.7280907534894268</v>
       </c>
       <c r="I13" s="0">
-        <v>4.261766980474273</v>
+        <v>4.2838036314532193</v>
       </c>
       <c r="J13" s="0">
-        <v>4.7886725683623403</v>
+        <v>4.6899300980956662</v>
       </c>
       <c r="K13" s="0">
-        <v>5.153019066648441</v>
+        <v>4.5483138313665767</v>
       </c>
       <c r="L13" s="0">
-        <v>5.4508332803726649</v>
+        <v>4.5226400585873794</v>
       </c>
       <c r="M13" s="0">
-        <v>5.6639245175254951</v>
+        <v>4.5366331002775375</v>
       </c>
       <c r="N13" s="0">
-        <v>5.7302596081937063</v>
+        <v>4.5424619461002074</v>
       </c>
       <c r="O13" s="0">
-        <v>5.6635343615747544</v>
+        <v>4.5106049925782044</v>
       </c>
       <c r="P13" s="0">
-        <v>5.5059968242242379</v>
+        <v>4.4436337897864622</v>
       </c>
       <c r="Q13" s="0">
-        <v>5.30310386214361</v>
+        <v>4.3486520726454776</v>
       </c>
       <c r="R13" s="0">
-        <v>5.1323494605856554</v>
+        <v>4.2355379793083072</v>
       </c>
       <c r="S13" s="0">
-        <v>5.0090944355443163</v>
+        <v>4.1137463982685594</v>
       </c>
       <c r="T13" s="0">
-        <v>4.9226320715027585</v>
+        <v>3.9908391913783605</v>
       </c>
       <c r="U13" s="0">
-        <v>4.849621102812689</v>
+        <v>3.8721278269575992</v>
       </c>
       <c r="V13" s="0">
-        <v>4.8071688581585139</v>
+        <v>3.764913658538291</v>
       </c>
       <c r="W13" s="0">
-        <v>4.7831106758868884</v>
+        <v>3.6835533539918526</v>
       </c>
       <c r="X13" s="0">
-        <v>4.7667337350188639</v>
+        <v>3.6257566046474299</v>
       </c>
       <c r="Y13" s="0">
-        <v>4.7554957406791152</v>
+        <v>3.5858490680963566</v>
       </c>
       <c r="Z13" s="0">
-        <v>4.7442273200292329</v>
+        <v>3.5586531482048374</v>
       </c>
       <c r="AA13" s="0">
-        <v>4.7360395605655645</v>
+        <v>3.5401857639397019</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>4.4838663636951965</v>
+        <v>4.4923075176230958</v>
       </c>
       <c r="B14" s="0">
-        <v>4.2289484059549727</v>
+        <v>4.2121043407440899</v>
       </c>
       <c r="C14" s="0">
-        <v>3.9720381763743036</v>
+        <v>3.9681052459669193</v>
       </c>
       <c r="D14" s="0">
-        <v>3.8287504028378359</v>
+        <v>3.8078058651868068</v>
       </c>
       <c r="E14" s="0">
-        <v>3.7993639990902395</v>
+        <v>3.7748128803261203</v>
       </c>
       <c r="F14" s="0">
-        <v>3.7491710731166434</v>
+        <v>3.7316344934341901</v>
       </c>
       <c r="G14" s="0">
-        <v>3.7047857287134374</v>
+        <v>3.6910722890456773</v>
       </c>
       <c r="H14" s="0">
-        <v>4.0337190973515957</v>
+        <v>3.9816451257014829</v>
       </c>
       <c r="I14" s="0">
-        <v>4.6377642181452394</v>
+        <v>4.5510421639583481</v>
       </c>
       <c r="J14" s="0">
-        <v>5.2150192957001069</v>
+        <v>5.0151850618754574</v>
       </c>
       <c r="K14" s="0">
-        <v>5.6320410418532481</v>
+        <v>4.9185537045384597</v>
       </c>
       <c r="L14" s="0">
-        <v>5.9623857228657062</v>
+        <v>4.9031598376899543</v>
       </c>
       <c r="M14" s="0">
-        <v>6.2272978476293757</v>
+        <v>4.9037288391645522</v>
       </c>
       <c r="N14" s="0">
-        <v>6.3188286917132155</v>
+        <v>4.8933404477781686</v>
       </c>
       <c r="O14" s="0">
-        <v>6.2331276757221685</v>
+        <v>4.8410646449180019</v>
       </c>
       <c r="P14" s="0">
-        <v>6.0447446890454524</v>
+        <v>4.7598263728199948</v>
       </c>
       <c r="Q14" s="0">
-        <v>5.8032468569143676</v>
+        <v>4.6643592555509468</v>
       </c>
       <c r="R14" s="0">
-        <v>5.613485561263019</v>
+        <v>4.5529746447894874</v>
       </c>
       <c r="S14" s="0">
-        <v>5.4692059827734116</v>
+        <v>4.4347585677636117</v>
       </c>
       <c r="T14" s="0">
-        <v>5.3633648245667773</v>
+        <v>4.2696529079008974</v>
       </c>
       <c r="U14" s="0">
-        <v>5.2969579770696837</v>
+        <v>4.1427153720281424</v>
       </c>
       <c r="V14" s="0">
-        <v>5.2536220623496614</v>
+        <v>4.0358131935178161</v>
       </c>
       <c r="W14" s="0">
-        <v>5.2203067410912514</v>
+        <v>3.955018546058775</v>
       </c>
       <c r="X14" s="0">
-        <v>5.2033301977049193</v>
+        <v>3.8982295074631397</v>
       </c>
       <c r="Y14" s="0">
-        <v>5.1915855956019534</v>
+        <v>3.8593826944243776</v>
       </c>
       <c r="Z14" s="0">
-        <v>5.182725587860415</v>
+        <v>3.8330635335594838</v>
       </c>
       <c r="AA14" s="0">
-        <v>5.1739817631413008</v>
+        <v>3.8152279243797782</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>4.7820713581914571</v>
+        <v>4.8222834756931308</v>
       </c>
       <c r="B15" s="0">
-        <v>4.5574010528522679</v>
+        <v>4.5902583014362808</v>
       </c>
       <c r="C15" s="0">
-        <v>4.3555963083948743</v>
+        <v>4.3678679561513052</v>
       </c>
       <c r="D15" s="0">
-        <v>4.2367700684205616</v>
+        <v>4.2421293839211067</v>
       </c>
       <c r="E15" s="0">
-        <v>4.208451288592558</v>
+        <v>4.2120242151869531</v>
       </c>
       <c r="F15" s="0">
-        <v>4.1686946574811286</v>
+        <v>4.172184377070784</v>
       </c>
       <c r="G15" s="0">
-        <v>4.1264545678905709</v>
+        <v>4.1259128869619488</v>
       </c>
       <c r="H15" s="0">
-        <v>4.4583646310060869</v>
+        <v>4.4052710979494476</v>
       </c>
       <c r="I15" s="0">
-        <v>5.1160010288809143</v>
+        <v>4.9638871472741757</v>
       </c>
       <c r="J15" s="0">
-        <v>5.7626976399095895</v>
+        <v>5.3838477036968921</v>
       </c>
       <c r="K15" s="0">
-        <v>6.2264412890002623</v>
+        <v>5.2541521393725876</v>
       </c>
       <c r="L15" s="0">
-        <v>6.616172064348512</v>
+        <v>5.2408308832548629</v>
       </c>
       <c r="M15" s="0">
-        <v>6.910390931226825</v>
+        <v>5.2681488709182789</v>
       </c>
       <c r="N15" s="0">
-        <v>7.015750210342854</v>
+        <v>5.2843344499120661</v>
       </c>
       <c r="O15" s="0">
-        <v>6.9310387021362105</v>
+        <v>5.254278924090678</v>
       </c>
       <c r="P15" s="0">
-        <v>6.7131924261513385</v>
+        <v>5.1777732773845644</v>
       </c>
       <c r="Q15" s="0">
-        <v>6.4403832282451106</v>
+        <v>5.0614780057258759</v>
       </c>
       <c r="R15" s="0">
-        <v>6.2192544479988898</v>
+        <v>4.9172904210964896</v>
       </c>
       <c r="S15" s="0">
-        <v>6.0593587685128192</v>
+        <v>4.7578053582995885</v>
       </c>
       <c r="T15" s="0">
-        <v>5.9482204830008252</v>
+        <v>4.5939503436947344</v>
       </c>
       <c r="U15" s="0">
-        <v>5.8724822757661492</v>
+        <v>4.4343691020559541</v>
       </c>
       <c r="V15" s="0">
-        <v>5.8154312421017424</v>
+        <v>4.2882867710734178</v>
       </c>
       <c r="W15" s="0">
-        <v>5.7747795845167618</v>
+        <v>4.1731317756942312</v>
       </c>
       <c r="X15" s="0">
-        <v>5.7472921162606374</v>
+        <v>4.0880407439550339</v>
       </c>
       <c r="Y15" s="0">
-        <v>5.7289226164172833</v>
+        <v>4.0312025227513555</v>
       </c>
       <c r="Z15" s="0">
-        <v>5.7169216750117924</v>
+        <v>4.0008725298706516</v>
       </c>
       <c r="AA15" s="0">
-        <v>5.7079428525940665</v>
+        <v>3.9805420366570408</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>4.2261686876048277</v>
+        <v>4.187004890163383</v>
       </c>
       <c r="B16" s="0">
-        <v>3.9720352699089849</v>
+        <v>3.9338131563546317</v>
       </c>
       <c r="C16" s="0">
-        <v>3.71047276813557</v>
+        <v>3.6957620609867816</v>
       </c>
       <c r="D16" s="0">
-        <v>3.570601439343799</v>
+        <v>3.5616985259838181</v>
       </c>
       <c r="E16" s="0">
-        <v>3.5257902962226617</v>
+        <v>3.5283814356794783</v>
       </c>
       <c r="F16" s="0">
-        <v>3.4755622816983442</v>
+        <v>3.4885445107536524</v>
       </c>
       <c r="G16" s="0">
-        <v>3.4273464430100464</v>
+        <v>3.4455482839708838</v>
       </c>
       <c r="H16" s="0">
-        <v>3.7087130251937817</v>
+        <v>3.7280907534894268</v>
       </c>
       <c r="I16" s="0">
-        <v>4.261766980474273</v>
+        <v>4.2838036314532193</v>
       </c>
       <c r="J16" s="0">
-        <v>4.7886725683623403</v>
+        <v>4.6899300980956662</v>
       </c>
       <c r="K16" s="0">
-        <v>5.153019066648441</v>
+        <v>4.5483138313665767</v>
       </c>
       <c r="L16" s="0">
-        <v>5.4508332829314803</v>
+        <v>4.5226400585873794</v>
       </c>
       <c r="M16" s="0">
-        <v>5.630206197438766</v>
+        <v>4.5366330940168469</v>
       </c>
       <c r="N16" s="0">
-        <v>5.5646619213504938</v>
+        <v>4.5331999808377974</v>
       </c>
       <c r="O16" s="0">
-        <v>5.3281450533260966</v>
+        <v>4.4644207392613744</v>
       </c>
       <c r="P16" s="0">
-        <v>4.9805670217204332</v>
+        <v>4.3475402328188437</v>
       </c>
       <c r="Q16" s="0">
-        <v>4.6206543160530469</v>
+        <v>4.1953463894914362</v>
       </c>
       <c r="R16" s="0">
-        <v>4.368379871674585</v>
+        <v>4.0205213465343634</v>
       </c>
       <c r="S16" s="0">
-        <v>4.1961927821913347</v>
+        <v>3.8350203835357171</v>
       </c>
       <c r="T16" s="0">
-        <v>4.0738327120146254</v>
+        <v>3.6484726757501811</v>
       </c>
       <c r="U16" s="0">
-        <v>3.9763042875668804</v>
+        <v>3.4676877693049804</v>
       </c>
       <c r="V16" s="0">
-        <v>3.9058070646346881</v>
+        <v>3.3082198219860963</v>
       </c>
       <c r="W16" s="0">
-        <v>3.8509419335348691</v>
+        <v>3.1961255627408791</v>
       </c>
       <c r="X16" s="0">
-        <v>3.813189963885764</v>
+        <v>3.1150009587425438</v>
       </c>
       <c r="Y16" s="0">
-        <v>3.783087966187852</v>
+        <v>3.0556800753116584</v>
       </c>
       <c r="Z16" s="0">
-        <v>3.7574417873279473</v>
+        <v>3.0120076653275221</v>
       </c>
       <c r="AA16" s="0">
-        <v>3.7353520503264162</v>
+        <v>2.9791627241339764</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>4.4838663636951965</v>
+        <v>4.4923075176230958</v>
       </c>
       <c r="B17" s="0">
-        <v>4.2289484059549727</v>
+        <v>4.2121043407440899</v>
       </c>
       <c r="C17" s="0">
-        <v>3.9720381763743036</v>
+        <v>3.9681052459669193</v>
       </c>
       <c r="D17" s="0">
-        <v>3.8287504028378359</v>
+        <v>3.8078058651868068</v>
       </c>
       <c r="E17" s="0">
-        <v>3.7993639990902395</v>
+        <v>3.7748128803261203</v>
       </c>
       <c r="F17" s="0">
-        <v>3.7491710731166434</v>
+        <v>3.7316344934341901</v>
       </c>
       <c r="G17" s="0">
-        <v>3.7047857287134374</v>
+        <v>3.6910722890456773</v>
       </c>
       <c r="H17" s="0">
-        <v>4.0337190973515957</v>
+        <v>3.9816451257014829</v>
       </c>
       <c r="I17" s="0">
-        <v>4.6377642181452394</v>
+        <v>4.5510421639583481</v>
       </c>
       <c r="J17" s="0">
-        <v>5.2150192957001069</v>
+        <v>5.0151850618754574</v>
       </c>
       <c r="K17" s="0">
-        <v>5.6320410418532481</v>
+        <v>4.9185537045384597</v>
       </c>
       <c r="L17" s="0">
-        <v>5.9623857252062971</v>
+        <v>4.9031598376899543</v>
       </c>
       <c r="M17" s="0">
-        <v>6.1888159569028831</v>
+        <v>4.9037288137716502</v>
       </c>
       <c r="N17" s="0">
-        <v>6.133599460869652</v>
+        <v>4.8833394923017339</v>
       </c>
       <c r="O17" s="0">
-        <v>5.8693568062361514</v>
+        <v>4.7935286119085498</v>
       </c>
       <c r="P17" s="0">
-        <v>5.473810257594633</v>
+        <v>4.6638991304292192</v>
       </c>
       <c r="Q17" s="0">
-        <v>5.0524371211643855</v>
+        <v>4.5104286600039059</v>
       </c>
       <c r="R17" s="0">
-        <v>4.7539958952207364</v>
+        <v>4.3360485318633719</v>
       </c>
       <c r="S17" s="0">
-        <v>4.5451910551313119</v>
+        <v>4.1133735988678897</v>
       </c>
       <c r="T17" s="0">
-        <v>4.4052580049240877</v>
+        <v>3.9266614696158939</v>
       </c>
       <c r="U17" s="0">
-        <v>4.3008900975545279</v>
+        <v>3.726115176552947</v>
       </c>
       <c r="V17" s="0">
-        <v>4.234038141701892</v>
+        <v>3.5521291635188792</v>
       </c>
       <c r="W17" s="0">
-        <v>4.1784662728119102</v>
+        <v>3.4318525219328064</v>
       </c>
       <c r="X17" s="0">
-        <v>4.1360002866816714</v>
+        <v>3.3486289183821585</v>
       </c>
       <c r="Y17" s="0">
-        <v>4.1031554610844401</v>
+        <v>3.2882237507485059</v>
       </c>
       <c r="Z17" s="0">
-        <v>4.0769757726675468</v>
+        <v>3.2382747699636125</v>
       </c>
       <c r="AA17" s="0">
-        <v>4.0541278679310429</v>
+        <v>3.2016889057560625</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>4.7820713581914571</v>
+        <v>4.8222834756931308</v>
       </c>
       <c r="B18" s="0">
-        <v>4.5574010528522679</v>
+        <v>4.5902583014362808</v>
       </c>
       <c r="C18" s="0">
-        <v>4.3555963083948743</v>
+        <v>4.3678679561513052</v>
       </c>
       <c r="D18" s="0">
-        <v>4.2367700684205616</v>
+        <v>4.2421293839211067</v>
       </c>
       <c r="E18" s="0">
-        <v>4.208451288592558</v>
+        <v>4.2120242151869531</v>
       </c>
       <c r="F18" s="0">
-        <v>4.1686946574811286</v>
+        <v>4.172184377070784</v>
       </c>
       <c r="G18" s="0">
-        <v>4.1264545678905709</v>
+        <v>4.1259128869619488</v>
       </c>
       <c r="H18" s="0">
-        <v>4.4583646310060869</v>
+        <v>4.4052710979494476</v>
       </c>
       <c r="I18" s="0">
-        <v>5.1160010288809143</v>
+        <v>4.9638871472741757</v>
       </c>
       <c r="J18" s="0">
-        <v>5.7626976399095895</v>
+        <v>5.3838477036968921</v>
       </c>
       <c r="K18" s="0">
-        <v>6.2264412890002623</v>
+        <v>5.2541521393725876</v>
       </c>
       <c r="L18" s="0">
-        <v>6.6161720697962361</v>
+        <v>5.2408308832548629</v>
       </c>
       <c r="M18" s="0">
-        <v>6.8664836246603302</v>
+        <v>5.2681488377984529</v>
       </c>
       <c r="N18" s="0">
-        <v>6.8131145801595983</v>
+        <v>5.2750758907705224</v>
       </c>
       <c r="O18" s="0">
-        <v>6.5163071447254035</v>
+        <v>5.2075068147922172</v>
       </c>
       <c r="P18" s="0">
-        <v>6.0670924578205057</v>
+        <v>5.0796756334308109</v>
       </c>
       <c r="Q18" s="0">
-        <v>5.5926314566536011</v>
+        <v>4.9041713081396079</v>
       </c>
       <c r="R18" s="0">
-        <v>5.2510828633039779</v>
+        <v>4.6958333748879424</v>
       </c>
       <c r="S18" s="0">
-        <v>5.0031720702117584</v>
+        <v>4.4698976184345653</v>
       </c>
       <c r="T18" s="0">
-        <v>4.8347713053324739</v>
+        <v>4.2394550683011136</v>
       </c>
       <c r="U18" s="0">
-        <v>4.7158264185614112</v>
+        <v>4.0146232294588957</v>
       </c>
       <c r="V18" s="0">
-        <v>4.6304966802433514</v>
+        <v>3.8135040832975533</v>
       </c>
       <c r="W18" s="0">
-        <v>4.568051992537363</v>
+        <v>3.665482341515276</v>
       </c>
       <c r="X18" s="0">
-        <v>4.5205511509228025</v>
+        <v>3.5558543339218778</v>
       </c>
       <c r="Y18" s="0">
-        <v>4.4838637140327782</v>
+        <v>3.4746669297742061</v>
       </c>
       <c r="Z18" s="0">
-        <v>4.4529419893365674</v>
+        <v>3.4145238820301991</v>
       </c>
       <c r="AA18" s="0">
-        <v>4.4265446056921967</v>
+        <v>3.3694470393526861</v>
       </c>
     </row>
   </sheetData>

--- a/England - submitted 19Jun25/incd_nums.xlsx
+++ b/England - submitted 19Jun25/incd_nums.xlsx
@@ -90,1496 +90,1496 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>4.187004890163383</v>
+        <v>5.7359911534445001</v>
       </c>
       <c r="B1" s="0">
-        <v>3.9338131563546317</v>
+        <v>5.3280363249767726</v>
       </c>
       <c r="C1" s="0">
-        <v>3.6957620609867816</v>
+        <v>4.9473738287547606</v>
       </c>
       <c r="D1" s="0">
-        <v>3.5616985259838181</v>
+        <v>4.7225481811131775</v>
       </c>
       <c r="E1" s="0">
-        <v>3.5283814356794783</v>
+        <v>4.6451767595057456</v>
       </c>
       <c r="F1" s="0">
-        <v>3.4885445107536524</v>
+        <v>4.564983025283456</v>
       </c>
       <c r="G1" s="0">
-        <v>3.4455482839708838</v>
+        <v>4.4920546981970064</v>
       </c>
       <c r="H1" s="0">
-        <v>3.7280907534894268</v>
+        <v>4.7414305945036244</v>
       </c>
       <c r="I1" s="0">
-        <v>4.2838036314532193</v>
+        <v>5.2367158400720779</v>
       </c>
       <c r="J1" s="0">
-        <v>4.6899300980956662</v>
+        <v>5.5626782957804553</v>
       </c>
       <c r="K1" s="0">
-        <v>4.5483138313665767</v>
+        <v>5.375395573945414</v>
       </c>
       <c r="L1" s="0">
-        <v>4.5226400585873794</v>
+        <v>5.3454122570545231</v>
       </c>
       <c r="M1" s="0">
-        <v>4.5366331520816248</v>
+        <v>5.363761046722388</v>
       </c>
       <c r="N1" s="0">
-        <v>4.5492425806008958</v>
+        <v>5.3822941869057797</v>
       </c>
       <c r="O1" s="0">
-        <v>4.5570145238991078</v>
+        <v>5.39579485699681</v>
       </c>
       <c r="P1" s="0">
-        <v>4.5666215305076108</v>
+        <v>5.4115178440937948</v>
       </c>
       <c r="Q1" s="0">
-        <v>4.5779724297372857</v>
+        <v>5.4291997220742694</v>
       </c>
       <c r="R1" s="0">
-        <v>4.5907636576004416</v>
+        <v>5.4484893646901646</v>
       </c>
       <c r="S1" s="0">
-        <v>4.6046742042636533</v>
+        <v>5.4690416437704741</v>
       </c>
       <c r="T1" s="0">
-        <v>4.6194366480010967</v>
+        <v>5.4905690097296081</v>
       </c>
       <c r="U1" s="0">
-        <v>4.6348455020065682</v>
+        <v>5.5128452801917334</v>
       </c>
       <c r="V1" s="0">
-        <v>4.650711858880789</v>
+        <v>5.5356546239632056</v>
       </c>
       <c r="W1" s="0">
-        <v>4.667291121754868</v>
+        <v>5.5593035591510471</v>
       </c>
       <c r="X1" s="0">
-        <v>4.6844491397569055</v>
+        <v>5.5836318951907238</v>
       </c>
       <c r="Y1" s="0">
-        <v>4.702077183345585</v>
+        <v>5.6085073481472012</v>
       </c>
       <c r="Z1" s="0">
-        <v>4.7200879756664005</v>
+        <v>5.6338215869667856</v>
       </c>
       <c r="AA1" s="0">
-        <v>4.7376241723857433</v>
+        <v>5.6594858190503441</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>4.4923075176230958</v>
+        <v>6.0843630090047247</v>
       </c>
       <c r="B2" s="0">
-        <v>4.2121043407440899</v>
+        <v>5.6861313509424738</v>
       </c>
       <c r="C2" s="0">
-        <v>3.9681052459669193</v>
+        <v>5.2962185881435628</v>
       </c>
       <c r="D2" s="0">
-        <v>3.8078058651868068</v>
+        <v>5.0683137466736072</v>
       </c>
       <c r="E2" s="0">
-        <v>3.7748128803261203</v>
+        <v>4.9913842122522834</v>
       </c>
       <c r="F2" s="0">
-        <v>3.7316344934341901</v>
+        <v>4.9135272670506778</v>
       </c>
       <c r="G2" s="0">
-        <v>3.6910722890456773</v>
+        <v>4.8382743559342902</v>
       </c>
       <c r="H2" s="0">
-        <v>3.9816451257014829</v>
+        <v>5.0759554155020794</v>
       </c>
       <c r="I2" s="0">
-        <v>4.5510421639583481</v>
+        <v>5.5582856342420008</v>
       </c>
       <c r="J2" s="0">
-        <v>5.0151850618754574</v>
+        <v>5.8715513956082743</v>
       </c>
       <c r="K2" s="0">
-        <v>4.9185537045384597</v>
+        <v>5.6953746590837886</v>
       </c>
       <c r="L2" s="0">
-        <v>4.9031598376899543</v>
+        <v>5.6727038956188363</v>
       </c>
       <c r="M2" s="0">
-        <v>4.9037287877681122</v>
+        <v>5.6895241379698094</v>
       </c>
       <c r="N2" s="0">
-        <v>4.9014815406578025</v>
+        <v>5.7057195688945646</v>
       </c>
       <c r="O2" s="0">
-        <v>4.8972596329861133</v>
+        <v>5.716876826613678</v>
       </c>
       <c r="P2" s="0">
-        <v>4.8975707712282253</v>
+        <v>5.7306132413019109</v>
       </c>
       <c r="Q2" s="0">
-        <v>4.9025373849241749</v>
+        <v>5.7465833280596543</v>
       </c>
       <c r="R2" s="0">
-        <v>4.9179570837700481</v>
+        <v>5.7643858579693621</v>
       </c>
       <c r="S2" s="0">
-        <v>4.9347791707953297</v>
+        <v>5.7854248933655841</v>
       </c>
       <c r="T2" s="0">
-        <v>4.9525834780300961</v>
+        <v>5.8099376423637876</v>
       </c>
       <c r="U2" s="0">
-        <v>4.9710744605651938</v>
+        <v>5.8351717980173099</v>
       </c>
       <c r="V2" s="0">
-        <v>4.9900094084094411</v>
+        <v>5.8609228024727607</v>
       </c>
       <c r="W2" s="0">
-        <v>5.0096424325591729</v>
+        <v>5.8875319169341518</v>
       </c>
       <c r="X2" s="0">
-        <v>5.0298214718937562</v>
+        <v>5.9148412816906575</v>
       </c>
       <c r="Y2" s="0">
-        <v>5.0504294076313245</v>
+        <v>5.9427184009080749</v>
       </c>
       <c r="Z2" s="0">
-        <v>5.0713759027236707</v>
+        <v>5.9710531356674279</v>
       </c>
       <c r="AA2" s="0">
-        <v>5.0925902819016686</v>
+        <v>5.9997539135161615</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>4.8222834756931308</v>
+        <v>6.213222819348049</v>
       </c>
       <c r="B3" s="0">
-        <v>4.5902583014362808</v>
+        <v>5.865136769345348</v>
       </c>
       <c r="C3" s="0">
-        <v>4.3678679561513052</v>
+        <v>5.5359102790569939</v>
       </c>
       <c r="D3" s="0">
-        <v>4.2421293839211067</v>
+        <v>5.3518558438483686</v>
       </c>
       <c r="E3" s="0">
-        <v>4.2120242151869531</v>
+        <v>5.3058142515091324</v>
       </c>
       <c r="F3" s="0">
-        <v>4.172184377070784</v>
+        <v>5.2519682757546091</v>
       </c>
       <c r="G3" s="0">
-        <v>4.1259128869619488</v>
+        <v>5.1962380348839146</v>
       </c>
       <c r="H3" s="0">
-        <v>4.4052710979494476</v>
+        <v>5.4370282214151873</v>
       </c>
       <c r="I3" s="0">
-        <v>4.9638871472741757</v>
+        <v>5.9152911154604189</v>
       </c>
       <c r="J3" s="0">
-        <v>5.3838477036968921</v>
+        <v>6.2449854780691982</v>
       </c>
       <c r="K3" s="0">
-        <v>5.2541521393725876</v>
+        <v>6.0812060699176662</v>
       </c>
       <c r="L3" s="0">
-        <v>5.2408308832548629</v>
+        <v>6.0530307238161463</v>
       </c>
       <c r="M3" s="0">
-        <v>5.2681488663721678</v>
+        <v>6.0790490231272525</v>
       </c>
       <c r="N3" s="0">
-        <v>5.2919153316665515</v>
+        <v>6.1077108327923275</v>
       </c>
       <c r="O3" s="0">
-        <v>5.3077220434578116</v>
+        <v>6.1306233989405117</v>
       </c>
       <c r="P3" s="0">
-        <v>5.3235391024829824</v>
+        <v>6.1553776967988245</v>
       </c>
       <c r="Q3" s="0">
-        <v>5.3397173301622365</v>
+        <v>6.1816840695970043</v>
       </c>
       <c r="R3" s="0">
-        <v>5.3563266715605158</v>
+        <v>6.2092703592899046</v>
       </c>
       <c r="S3" s="0">
-        <v>5.3733298139737267</v>
+        <v>6.2378690807491246</v>
       </c>
       <c r="T3" s="0">
-        <v>5.3906709841129938</v>
+        <v>6.2672555937643635</v>
       </c>
       <c r="U3" s="0">
-        <v>5.4083020438811964</v>
+        <v>6.2972520934193028</v>
       </c>
       <c r="V3" s="0">
-        <v>5.4261442607357946</v>
+        <v>6.3279153126675363</v>
       </c>
       <c r="W3" s="0">
-        <v>5.4445997392451755</v>
+        <v>6.3593729629388198</v>
       </c>
       <c r="X3" s="0">
-        <v>5.4635885239270303</v>
+        <v>6.3914841281185435</v>
       </c>
       <c r="Y3" s="0">
-        <v>5.4830388679201478</v>
+        <v>6.4241295748929037</v>
       </c>
       <c r="Z3" s="0">
-        <v>5.5028880384920233</v>
+        <v>6.4572081034701405</v>
       </c>
       <c r="AA3" s="0">
-        <v>5.5230815097037009</v>
+        <v>6.4906339038884147</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>4.187004890163383</v>
+        <v>5.7359911534445001</v>
       </c>
       <c r="B4" s="0">
-        <v>3.9338131563546317</v>
+        <v>5.3280363249767726</v>
       </c>
       <c r="C4" s="0">
-        <v>3.6957620609867816</v>
+        <v>4.9473738287547606</v>
       </c>
       <c r="D4" s="0">
-        <v>3.5616985259838181</v>
+        <v>4.7225481811131775</v>
       </c>
       <c r="E4" s="0">
-        <v>3.5283814356794783</v>
+        <v>4.6451767595057456</v>
       </c>
       <c r="F4" s="0">
-        <v>3.4885445107536524</v>
+        <v>4.564983025283456</v>
       </c>
       <c r="G4" s="0">
-        <v>3.4455482839708838</v>
+        <v>4.4920546981970064</v>
       </c>
       <c r="H4" s="0">
-        <v>3.7280907534894268</v>
+        <v>4.7414305945036244</v>
       </c>
       <c r="I4" s="0">
-        <v>4.2838036314532193</v>
+        <v>5.2367158400720779</v>
       </c>
       <c r="J4" s="0">
-        <v>4.6899300980956662</v>
+        <v>5.5626782957804553</v>
       </c>
       <c r="K4" s="0">
-        <v>4.5483138313665767</v>
+        <v>5.375395573945414</v>
       </c>
       <c r="L4" s="0">
-        <v>4.5226400585873794</v>
+        <v>5.3454122570545231</v>
       </c>
       <c r="M4" s="0">
-        <v>4.5366331004009748</v>
+        <v>5.3637609901277692</v>
       </c>
       <c r="N4" s="0">
-        <v>4.5435701863588935</v>
+        <v>5.3772810295257392</v>
       </c>
       <c r="O4" s="0">
-        <v>4.5234742958718082</v>
+        <v>5.3663632725637687</v>
       </c>
       <c r="P4" s="0">
-        <v>4.4869423540081073</v>
+        <v>5.3415944124331451</v>
       </c>
       <c r="Q4" s="0">
-        <v>4.4390123669172521</v>
+        <v>5.3067505590433619</v>
       </c>
       <c r="R4" s="0">
-        <v>4.3837363697983145</v>
+        <v>5.2648864378681308</v>
       </c>
       <c r="S4" s="0">
-        <v>4.3247087089080472</v>
+        <v>5.2187566650383577</v>
       </c>
       <c r="T4" s="0">
-        <v>4.2648515638301472</v>
+        <v>5.1706406701909096</v>
       </c>
       <c r="U4" s="0">
-        <v>4.2062893356611024</v>
+        <v>5.1222367954889521</v>
       </c>
       <c r="V4" s="0">
-        <v>4.1538289776600452</v>
+        <v>5.0777774285510207</v>
       </c>
       <c r="W4" s="0">
-        <v>4.1163058726018793</v>
+        <v>5.045162859508002</v>
       </c>
       <c r="X4" s="0">
-        <v>4.0886881340932542</v>
+        <v>5.0200053294269536</v>
       </c>
       <c r="Y4" s="0">
-        <v>4.0678767937934701</v>
+        <v>4.9998813445480144</v>
       </c>
       <c r="Z4" s="0">
-        <v>4.0521562661277715</v>
+        <v>4.9835637038465492</v>
       </c>
       <c r="AA4" s="0">
-        <v>4.0402965152850205</v>
+        <v>4.9702107110286091</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>4.4923075176230958</v>
+        <v>6.0843630090047247</v>
       </c>
       <c r="B5" s="0">
-        <v>4.2121043407440899</v>
+        <v>5.6861313509424738</v>
       </c>
       <c r="C5" s="0">
-        <v>3.9681052459669193</v>
+        <v>5.2962185881435628</v>
       </c>
       <c r="D5" s="0">
-        <v>3.8078058651868068</v>
+        <v>5.0683137466736072</v>
       </c>
       <c r="E5" s="0">
-        <v>3.7748128803261203</v>
+        <v>4.9913842122522834</v>
       </c>
       <c r="F5" s="0">
-        <v>3.7316344934341901</v>
+        <v>4.9135272670506778</v>
       </c>
       <c r="G5" s="0">
-        <v>3.6910722890456773</v>
+        <v>4.8382743559342902</v>
       </c>
       <c r="H5" s="0">
-        <v>3.9816451257014829</v>
+        <v>5.0759554155020794</v>
       </c>
       <c r="I5" s="0">
-        <v>4.5510421639583481</v>
+        <v>5.5582856342420008</v>
       </c>
       <c r="J5" s="0">
-        <v>5.0151850618754574</v>
+        <v>5.8715513956082743</v>
       </c>
       <c r="K5" s="0">
-        <v>4.9185537045384597</v>
+        <v>5.6953746590837886</v>
       </c>
       <c r="L5" s="0">
-        <v>4.9031598376899543</v>
+        <v>5.6727038956188363</v>
       </c>
       <c r="M5" s="0">
-        <v>4.9037288391861669</v>
+        <v>5.6895243923237366</v>
       </c>
       <c r="N5" s="0">
-        <v>4.8952767772525903</v>
+        <v>5.7014603888133557</v>
       </c>
       <c r="O5" s="0">
-        <v>4.8605330668386184</v>
+        <v>5.691854978245968</v>
       </c>
       <c r="P5" s="0">
-        <v>4.8089779264734194</v>
+        <v>5.6711378140532966</v>
       </c>
       <c r="Q5" s="0">
-        <v>4.7535949638198929</v>
+        <v>5.6422189704369838</v>
       </c>
       <c r="R5" s="0">
-        <v>4.6946261022861258</v>
+        <v>5.6073910780380993</v>
       </c>
       <c r="S5" s="0">
-        <v>4.6315496863632593</v>
+        <v>5.5687778095531932</v>
       </c>
       <c r="T5" s="0">
-        <v>4.567650669165066</v>
+        <v>5.5281930641226618</v>
       </c>
       <c r="U5" s="0">
-        <v>4.5053417837739076</v>
+        <v>5.4870304636422009</v>
       </c>
       <c r="V5" s="0">
-        <v>4.4496467643056103</v>
+        <v>5.4482669830439852</v>
       </c>
       <c r="W5" s="0">
-        <v>4.4097546667366165</v>
+        <v>5.4185256909688668</v>
       </c>
       <c r="X5" s="0">
-        <v>4.3808721832763977</v>
+        <v>5.3948351038060904</v>
       </c>
       <c r="Y5" s="0">
-        <v>4.359723749176645</v>
+        <v>5.3727821454786078</v>
       </c>
       <c r="Z5" s="0">
-        <v>4.34430053492318</v>
+        <v>5.3548092078969134</v>
       </c>
       <c r="AA5" s="0">
-        <v>4.3331180300725265</v>
+        <v>5.3400103976814499</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>4.8222834756931308</v>
+        <v>6.213222819348049</v>
       </c>
       <c r="B6" s="0">
-        <v>4.5902583014362808</v>
+        <v>5.865136769345348</v>
       </c>
       <c r="C6" s="0">
-        <v>4.3678679561513052</v>
+        <v>5.5359102790569939</v>
       </c>
       <c r="D6" s="0">
-        <v>4.2421293839211067</v>
+        <v>5.3518558438483686</v>
       </c>
       <c r="E6" s="0">
-        <v>4.2120242151869531</v>
+        <v>5.3058142515091324</v>
       </c>
       <c r="F6" s="0">
-        <v>4.172184377070784</v>
+        <v>5.2519682757546091</v>
       </c>
       <c r="G6" s="0">
-        <v>4.1259128869619488</v>
+        <v>5.1962380348839146</v>
       </c>
       <c r="H6" s="0">
-        <v>4.4052710979494476</v>
+        <v>5.4370282214151873</v>
       </c>
       <c r="I6" s="0">
-        <v>4.9638871472741757</v>
+        <v>5.9152911154604189</v>
       </c>
       <c r="J6" s="0">
-        <v>5.3838477036968921</v>
+        <v>6.2449854780691982</v>
       </c>
       <c r="K6" s="0">
-        <v>5.2541521393725876</v>
+        <v>6.0812060699176662</v>
       </c>
       <c r="L6" s="0">
-        <v>5.2408308832548629</v>
+        <v>6.0530307238161463</v>
       </c>
       <c r="M6" s="0">
-        <v>5.2681488709498563</v>
+        <v>6.0790489319199033</v>
       </c>
       <c r="N6" s="0">
-        <v>5.2856670191728732</v>
+        <v>6.1024849894489712</v>
       </c>
       <c r="O6" s="0">
-        <v>5.2707696197773304</v>
+        <v>6.099410017057739</v>
       </c>
       <c r="P6" s="0">
-        <v>5.2358729273042064</v>
+        <v>6.0807444304330458</v>
       </c>
       <c r="Q6" s="0">
-        <v>5.1870042363948663</v>
+        <v>6.050647918652218</v>
       </c>
       <c r="R6" s="0">
-        <v>5.1289057882234541</v>
+        <v>6.0123937689718305</v>
       </c>
       <c r="S6" s="0">
-        <v>5.0656940652706188</v>
+        <v>5.9688621747369259</v>
       </c>
       <c r="T6" s="0">
-        <v>5.000695720616263</v>
+        <v>5.9224212031421004</v>
       </c>
       <c r="U6" s="0">
-        <v>4.9363470302533088</v>
+        <v>5.8748398804486852</v>
       </c>
       <c r="V6" s="0">
-        <v>4.878023363146343</v>
+        <v>5.8304989024881007</v>
       </c>
       <c r="W6" s="0">
-        <v>4.8355733901288351</v>
+        <v>5.7979971500014225</v>
       </c>
       <c r="X6" s="0">
-        <v>4.8035335552687828</v>
+        <v>5.7728807202801242</v>
       </c>
       <c r="Y6" s="0">
-        <v>4.778604512446635</v>
+        <v>5.7524874624358864</v>
       </c>
       <c r="Z6" s="0">
-        <v>4.7590739206058332</v>
+        <v>5.7355906616486969</v>
       </c>
       <c r="AA6" s="0">
-        <v>4.7437458425332348</v>
+        <v>5.7214138550316278</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>4.187004890163383</v>
+        <v>5.7359911534445001</v>
       </c>
       <c r="B7" s="0">
-        <v>3.9338131563546317</v>
+        <v>5.3280363249767726</v>
       </c>
       <c r="C7" s="0">
-        <v>3.6957620609867816</v>
+        <v>4.9473738287547606</v>
       </c>
       <c r="D7" s="0">
-        <v>3.5616985259838181</v>
+        <v>4.7225481811131775</v>
       </c>
       <c r="E7" s="0">
-        <v>3.5283814356794783</v>
+        <v>4.6451767595057456</v>
       </c>
       <c r="F7" s="0">
-        <v>3.4885445107536524</v>
+        <v>4.564983025283456</v>
       </c>
       <c r="G7" s="0">
-        <v>3.4455482839708838</v>
+        <v>4.4920546981970064</v>
       </c>
       <c r="H7" s="0">
-        <v>3.7280907534894268</v>
+        <v>4.7414305945036244</v>
       </c>
       <c r="I7" s="0">
-        <v>4.2838036314532193</v>
+        <v>5.2367158400720779</v>
       </c>
       <c r="J7" s="0">
-        <v>4.6899300980956662</v>
+        <v>5.5626782957804553</v>
       </c>
       <c r="K7" s="0">
-        <v>4.5483138313665767</v>
+        <v>5.375395573945414</v>
       </c>
       <c r="L7" s="0">
-        <v>4.5226400585873794</v>
+        <v>5.3454122570545231</v>
       </c>
       <c r="M7" s="0">
-        <v>4.5366331002886131</v>
+        <v>5.3637609901168215</v>
       </c>
       <c r="N7" s="0">
-        <v>4.5434608907897074</v>
+        <v>5.3771853271726649</v>
       </c>
       <c r="O7" s="0">
-        <v>4.5230148176977103</v>
+        <v>5.3659620559140739</v>
       </c>
       <c r="P7" s="0">
-        <v>4.4861594540904353</v>
+        <v>5.3409134068081619</v>
       </c>
       <c r="Q7" s="0">
-        <v>4.4379884289364737</v>
+        <v>5.3058615868245607</v>
       </c>
       <c r="R7" s="0">
-        <v>4.3825504341917254</v>
+        <v>5.2638554054504798</v>
       </c>
       <c r="S7" s="0">
-        <v>4.3234318551372581</v>
+        <v>5.2176409154607368</v>
       </c>
       <c r="T7" s="0">
-        <v>4.2635471961423397</v>
+        <v>5.1694907180001586</v>
       </c>
       <c r="U7" s="0">
-        <v>4.2050137962207197</v>
+        <v>5.1210979112294277</v>
       </c>
       <c r="V7" s="0">
-        <v>4.1527461580563205</v>
+        <v>5.076792361098347</v>
       </c>
       <c r="W7" s="0">
-        <v>4.1157160397030443</v>
+        <v>5.044597934448884</v>
       </c>
       <c r="X7" s="0">
-        <v>4.0885999497234469</v>
+        <v>5.0198689685063167</v>
       </c>
       <c r="Y7" s="0">
-        <v>4.0682324222504507</v>
+        <v>5.0001244716208735</v>
       </c>
       <c r="Z7" s="0">
-        <v>4.0529022199932259</v>
+        <v>4.9841428236884511</v>
       </c>
       <c r="AA7" s="0">
-        <v>4.0413902118203735</v>
+        <v>4.9710926734793963</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>4.4923075176230958</v>
+        <v>6.0843630090047247</v>
       </c>
       <c r="B8" s="0">
-        <v>4.2121043407440899</v>
+        <v>5.6861313509424738</v>
       </c>
       <c r="C8" s="0">
-        <v>3.9681052459669193</v>
+        <v>5.2962185881435628</v>
       </c>
       <c r="D8" s="0">
-        <v>3.8078058651868068</v>
+        <v>5.0683137466736072</v>
       </c>
       <c r="E8" s="0">
-        <v>3.7748128803261203</v>
+        <v>4.9913842122522834</v>
       </c>
       <c r="F8" s="0">
-        <v>3.7316344934341901</v>
+        <v>4.9135272670506778</v>
       </c>
       <c r="G8" s="0">
-        <v>3.6910722890456773</v>
+        <v>4.8382743559342902</v>
       </c>
       <c r="H8" s="0">
-        <v>3.9816451257014829</v>
+        <v>5.0759554155020794</v>
       </c>
       <c r="I8" s="0">
-        <v>4.5510421639583481</v>
+        <v>5.5582856342420008</v>
       </c>
       <c r="J8" s="0">
-        <v>5.0151850618754574</v>
+        <v>5.8715513956082743</v>
       </c>
       <c r="K8" s="0">
-        <v>4.9185537045384597</v>
+        <v>5.6953746590837886</v>
       </c>
       <c r="L8" s="0">
-        <v>4.9031598376899543</v>
+        <v>5.6727038956188363</v>
       </c>
       <c r="M8" s="0">
-        <v>4.9037288391645522</v>
+        <v>5.6895243920911707</v>
       </c>
       <c r="N8" s="0">
-        <v>4.8951337304179807</v>
+        <v>5.701357598936192</v>
       </c>
       <c r="O8" s="0">
-        <v>4.8599232192010877</v>
+        <v>5.6914226749497434</v>
       </c>
       <c r="P8" s="0">
-        <v>4.8079215367455426</v>
+        <v>5.6704013707884489</v>
       </c>
       <c r="Q8" s="0">
-        <v>4.7523366497658115</v>
+        <v>5.641253460898672</v>
       </c>
       <c r="R8" s="0">
-        <v>4.6931684033117085</v>
+        <v>5.6062661593201977</v>
       </c>
       <c r="S8" s="0">
-        <v>4.6299833678750968</v>
+        <v>5.5675547472652074</v>
       </c>
       <c r="T8" s="0">
-        <v>4.566056697249139</v>
+        <v>5.5269264955860384</v>
       </c>
       <c r="U8" s="0">
-        <v>4.5037913280835493</v>
+        <v>5.4857700101500306</v>
       </c>
       <c r="V8" s="0">
-        <v>4.4483395766621516</v>
+        <v>5.4471224287438158</v>
       </c>
       <c r="W8" s="0">
-        <v>4.4090559966952334</v>
+        <v>5.4178709214345444</v>
       </c>
       <c r="X8" s="0">
-        <v>4.3807960741294041</v>
+        <v>5.3946752062360135</v>
       </c>
       <c r="Y8" s="0">
-        <v>4.3601997080864265</v>
+        <v>5.3730296128653192</v>
       </c>
       <c r="Z8" s="0">
-        <v>4.3452603274457875</v>
+        <v>5.3554158066011004</v>
       </c>
       <c r="AA8" s="0">
-        <v>4.3345056985128947</v>
+        <v>5.3409393111894881</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>4.8222834756931308</v>
+        <v>6.213222819348049</v>
       </c>
       <c r="B9" s="0">
-        <v>4.5902583014362808</v>
+        <v>5.865136769345348</v>
       </c>
       <c r="C9" s="0">
-        <v>4.3678679561513052</v>
+        <v>5.5359102790569939</v>
       </c>
       <c r="D9" s="0">
-        <v>4.2421293839211067</v>
+        <v>5.3518558438483686</v>
       </c>
       <c r="E9" s="0">
-        <v>4.2120242151869531</v>
+        <v>5.3058142515091324</v>
       </c>
       <c r="F9" s="0">
-        <v>4.172184377070784</v>
+        <v>5.2519682757546091</v>
       </c>
       <c r="G9" s="0">
-        <v>4.1259128869619488</v>
+        <v>5.1962380348839146</v>
       </c>
       <c r="H9" s="0">
-        <v>4.4052710979494476</v>
+        <v>5.4370282214151873</v>
       </c>
       <c r="I9" s="0">
-        <v>4.9638871472741757</v>
+        <v>5.9152911154604189</v>
       </c>
       <c r="J9" s="0">
-        <v>5.3838477036968921</v>
+        <v>6.2449854780691982</v>
       </c>
       <c r="K9" s="0">
-        <v>5.2541521393725876</v>
+        <v>6.0812060699176662</v>
       </c>
       <c r="L9" s="0">
-        <v>5.2408308832548629</v>
+        <v>6.0530307238161463</v>
       </c>
       <c r="M9" s="0">
-        <v>5.2681488709233832</v>
+        <v>6.0790489318490009</v>
       </c>
       <c r="N9" s="0">
-        <v>5.2855642339499607</v>
+        <v>6.1024089101862939</v>
       </c>
       <c r="O9" s="0">
-        <v>5.2703365398076665</v>
+        <v>6.0990918098625278</v>
       </c>
       <c r="P9" s="0">
-        <v>5.2351332725520896</v>
+        <v>6.0802058687584895</v>
       </c>
       <c r="Q9" s="0">
-        <v>5.1860334365977421</v>
+        <v>6.0499465630137461</v>
       </c>
       <c r="R9" s="0">
-        <v>5.1277756702403616</v>
+        <v>6.0115811924271165</v>
       </c>
       <c r="S9" s="0">
-        <v>5.0644692882675422</v>
+        <v>5.9679823182760456</v>
       </c>
       <c r="T9" s="0">
-        <v>4.9994346600506754</v>
+        <v>5.9215123080946741</v>
       </c>
       <c r="U9" s="0">
-        <v>4.9351026348924325</v>
+        <v>5.8739361366528042</v>
       </c>
       <c r="V9" s="0">
-        <v>4.8769528076575428</v>
+        <v>5.8297132557557667</v>
       </c>
       <c r="W9" s="0">
-        <v>4.8349655633883302</v>
+        <v>5.797541701699596</v>
       </c>
       <c r="X9" s="0">
-        <v>4.8033994158429296</v>
+        <v>5.7727602211438773</v>
       </c>
       <c r="Y9" s="0">
-        <v>4.7788926950879507</v>
+        <v>5.7526615004341926</v>
       </c>
       <c r="Z9" s="0">
-        <v>4.7597381322094883</v>
+        <v>5.7360247593855736</v>
       </c>
       <c r="AA9" s="0">
-        <v>4.7447500790567583</v>
+        <v>5.7220827527761768</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>4.187004890163383</v>
+        <v>5.7359911534445001</v>
       </c>
       <c r="B10" s="0">
-        <v>3.9338131563546317</v>
+        <v>5.3280363249767726</v>
       </c>
       <c r="C10" s="0">
-        <v>3.6957620609867816</v>
+        <v>4.9473738287547606</v>
       </c>
       <c r="D10" s="0">
-        <v>3.5616985259838181</v>
+        <v>4.7225481811131775</v>
       </c>
       <c r="E10" s="0">
-        <v>3.5283814356794783</v>
+        <v>4.6451767595057456</v>
       </c>
       <c r="F10" s="0">
-        <v>3.4885445107536524</v>
+        <v>4.564983025283456</v>
       </c>
       <c r="G10" s="0">
-        <v>3.4455482839708838</v>
+        <v>4.4920546981970064</v>
       </c>
       <c r="H10" s="0">
-        <v>3.7280907534894268</v>
+        <v>4.7414305945036244</v>
       </c>
       <c r="I10" s="0">
-        <v>4.2838036314532193</v>
+        <v>5.2367158400720779</v>
       </c>
       <c r="J10" s="0">
-        <v>4.6899300980956662</v>
+        <v>5.5626782957804553</v>
       </c>
       <c r="K10" s="0">
-        <v>4.5483138313665767</v>
+        <v>5.375395573945414</v>
       </c>
       <c r="L10" s="0">
-        <v>4.5226400585873794</v>
+        <v>5.3454122570545231</v>
       </c>
       <c r="M10" s="0">
-        <v>4.5366331002776708</v>
+        <v>5.3637609901169601</v>
       </c>
       <c r="N10" s="0">
-        <v>4.5424675105794332</v>
+        <v>5.3759896464750456</v>
       </c>
       <c r="O10" s="0">
-        <v>4.5110051523770034</v>
+        <v>5.3509212862562308</v>
       </c>
       <c r="P10" s="0">
-        <v>4.4457228820471233</v>
+        <v>5.2884274711250132</v>
       </c>
       <c r="Q10" s="0">
-        <v>4.3539853937469184</v>
+        <v>5.1934763323688928</v>
       </c>
       <c r="R10" s="0">
-        <v>4.2453291031517502</v>
+        <v>5.07548214149495</v>
       </c>
       <c r="S10" s="0">
-        <v>4.1286704776475958</v>
+        <v>4.944409205247549</v>
       </c>
       <c r="T10" s="0">
-        <v>4.0110552695104795</v>
+        <v>4.8088336379240015</v>
       </c>
       <c r="U10" s="0">
-        <v>3.8973915004707118</v>
+        <v>4.6752339840293873</v>
       </c>
       <c r="V10" s="0">
-        <v>3.794703651546405</v>
+        <v>4.5517225482064383</v>
       </c>
       <c r="W10" s="0">
-        <v>3.7170197636840232</v>
+        <v>4.4532602001123545</v>
       </c>
       <c r="X10" s="0">
-        <v>3.6616947105381978</v>
+        <v>4.3792369383494734</v>
       </c>
       <c r="Y10" s="0">
-        <v>3.6231198639643991</v>
+        <v>4.3248218740695448</v>
       </c>
       <c r="Z10" s="0">
-        <v>3.5964199961020533</v>
+        <v>4.2849142593602441</v>
       </c>
       <c r="AA10" s="0">
-        <v>3.5779200376886986</v>
+        <v>4.2509370243300087</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>4.4923075176230958</v>
+        <v>6.0843630090047247</v>
       </c>
       <c r="B11" s="0">
-        <v>4.2121043407440899</v>
+        <v>5.6861313509424738</v>
       </c>
       <c r="C11" s="0">
-        <v>3.9681052459669193</v>
+        <v>5.2962185881435628</v>
       </c>
       <c r="D11" s="0">
-        <v>3.8078058651868068</v>
+        <v>5.0683137466736072</v>
       </c>
       <c r="E11" s="0">
-        <v>3.7748128803261203</v>
+        <v>4.9913842122522834</v>
       </c>
       <c r="F11" s="0">
-        <v>3.7316344934341901</v>
+        <v>4.9135272670506778</v>
       </c>
       <c r="G11" s="0">
-        <v>3.6910722890456773</v>
+        <v>4.8382743559342902</v>
       </c>
       <c r="H11" s="0">
-        <v>3.9816451257014829</v>
+        <v>5.0759554155020794</v>
       </c>
       <c r="I11" s="0">
-        <v>4.5510421639583481</v>
+        <v>5.5582856342420008</v>
       </c>
       <c r="J11" s="0">
-        <v>5.0151850618754574</v>
+        <v>5.8715513956082743</v>
       </c>
       <c r="K11" s="0">
-        <v>4.9185537045384597</v>
+        <v>5.6953746590837886</v>
       </c>
       <c r="L11" s="0">
-        <v>4.9031598376899543</v>
+        <v>5.6727038956188363</v>
       </c>
       <c r="M11" s="0">
-        <v>4.9037288391591485</v>
+        <v>5.6895243919960299</v>
       </c>
       <c r="N11" s="0">
-        <v>4.8933899607967275</v>
+        <v>5.6997714018017032</v>
       </c>
       <c r="O11" s="0">
-        <v>4.8417913256970975</v>
+        <v>5.671899541861654</v>
       </c>
       <c r="P11" s="0">
-        <v>4.7624075328202116</v>
+        <v>5.6038579787002814</v>
       </c>
       <c r="Q11" s="0">
-        <v>4.670209056961161</v>
+        <v>5.5119493133391524</v>
       </c>
       <c r="R11" s="0">
-        <v>4.5629740128274374</v>
+        <v>5.3951947298142722</v>
       </c>
       <c r="S11" s="0">
-        <v>4.4492843932438246</v>
+        <v>5.2633670625009819</v>
       </c>
       <c r="T11" s="0">
-        <v>4.2938714070791502</v>
+        <v>5.1253032103090925</v>
       </c>
       <c r="U11" s="0">
-        <v>4.1705438068400014</v>
+        <v>4.9879509702959934</v>
       </c>
       <c r="V11" s="0">
-        <v>4.0683451517530678</v>
+        <v>4.8595927102863348</v>
       </c>
       <c r="W11" s="0">
-        <v>3.9912903494582706</v>
+        <v>4.7549744966042011</v>
       </c>
       <c r="X11" s="0">
-        <v>3.9369315322031162</v>
+        <v>4.6691856726639438</v>
       </c>
       <c r="Y11" s="0">
-        <v>3.8993422487062102</v>
+        <v>4.5960844002554993</v>
       </c>
       <c r="Z11" s="0">
-        <v>3.8734581985564422</v>
+        <v>4.5414573116496353</v>
       </c>
       <c r="AA11" s="0">
-        <v>3.8555615086748203</v>
+        <v>4.5005067768959028</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>4.8222834756931308</v>
+        <v>6.213222819348049</v>
       </c>
       <c r="B12" s="0">
-        <v>4.5902583014362808</v>
+        <v>5.865136769345348</v>
       </c>
       <c r="C12" s="0">
-        <v>4.3678679561513052</v>
+        <v>5.5359102790569939</v>
       </c>
       <c r="D12" s="0">
-        <v>4.2421293839211067</v>
+        <v>5.3518558438483686</v>
       </c>
       <c r="E12" s="0">
-        <v>4.2120242151869531</v>
+        <v>5.3058142515091324</v>
       </c>
       <c r="F12" s="0">
-        <v>4.172184377070784</v>
+        <v>5.2519682757546091</v>
       </c>
       <c r="G12" s="0">
-        <v>4.1259128869619488</v>
+        <v>5.1962380348839146</v>
       </c>
       <c r="H12" s="0">
-        <v>4.4052710979494476</v>
+        <v>5.4370282214151873</v>
       </c>
       <c r="I12" s="0">
-        <v>4.9638871472741757</v>
+        <v>5.9152911154604189</v>
       </c>
       <c r="J12" s="0">
-        <v>5.3838477036968921</v>
+        <v>6.2449854780691982</v>
       </c>
       <c r="K12" s="0">
-        <v>5.2541521393725876</v>
+        <v>6.0812060699176662</v>
       </c>
       <c r="L12" s="0">
-        <v>5.2408308832548629</v>
+        <v>6.0530307238161463</v>
       </c>
       <c r="M12" s="0">
-        <v>5.2681488709182789</v>
+        <v>6.0790489318380505</v>
       </c>
       <c r="N12" s="0">
-        <v>5.2843239672128348</v>
+        <v>6.1014013352626</v>
       </c>
       <c r="O12" s="0">
-        <v>5.2546932665737174</v>
+        <v>6.0848694254523403</v>
       </c>
       <c r="P12" s="0">
-        <v>5.1804398633076225</v>
+        <v>6.0268788969650755</v>
       </c>
       <c r="Q12" s="0">
-        <v>5.0688398249647788</v>
+        <v>5.9301546107331094</v>
       </c>
       <c r="R12" s="0">
-        <v>4.9314512878898693</v>
+        <v>5.8037523311333539</v>
       </c>
       <c r="S12" s="0">
-        <v>4.7801156304947536</v>
+        <v>5.6585713744446986</v>
       </c>
       <c r="T12" s="0">
-        <v>4.6249136937161008</v>
+        <v>5.5047724253430026</v>
       </c>
       <c r="U12" s="0">
-        <v>4.4738060380583722</v>
+        <v>5.350555037824841</v>
       </c>
       <c r="V12" s="0">
-        <v>4.33546940519083</v>
+        <v>5.2055552228011708</v>
       </c>
       <c r="W12" s="0">
-        <v>4.2267913198579778</v>
+        <v>5.0861794971523047</v>
       </c>
       <c r="X12" s="0">
-        <v>4.1463068310143516</v>
+        <v>4.9933035502752929</v>
       </c>
       <c r="Y12" s="0">
-        <v>4.088146418582995</v>
+        <v>4.9229274186720691</v>
       </c>
       <c r="Z12" s="0">
-        <v>4.0465324316231044</v>
+        <v>4.870107048596199</v>
       </c>
       <c r="AA12" s="0">
-        <v>4.0211644646944436</v>
+        <v>4.8304135542505326</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>4.187004890163383</v>
+        <v>5.7359911534445001</v>
       </c>
       <c r="B13" s="0">
-        <v>3.9338131563546317</v>
+        <v>5.3280363249767726</v>
       </c>
       <c r="C13" s="0">
-        <v>3.6957620609867816</v>
+        <v>4.9473738287547606</v>
       </c>
       <c r="D13" s="0">
-        <v>3.5616985259838181</v>
+        <v>4.7225481811131775</v>
       </c>
       <c r="E13" s="0">
-        <v>3.5283814356794783</v>
+        <v>4.6451767595057456</v>
       </c>
       <c r="F13" s="0">
-        <v>3.4885445107536524</v>
+        <v>4.564983025283456</v>
       </c>
       <c r="G13" s="0">
-        <v>3.4455482839708838</v>
+        <v>4.4920546981970064</v>
       </c>
       <c r="H13" s="0">
-        <v>3.7280907534894268</v>
+        <v>4.7414305945036244</v>
       </c>
       <c r="I13" s="0">
-        <v>4.2838036314532193</v>
+        <v>5.2367158400720779</v>
       </c>
       <c r="J13" s="0">
-        <v>4.6899300980956662</v>
+        <v>5.5626782957804553</v>
       </c>
       <c r="K13" s="0">
-        <v>4.5483138313665767</v>
+        <v>5.375395573945414</v>
       </c>
       <c r="L13" s="0">
-        <v>4.5226400585873794</v>
+        <v>5.3454122570545231</v>
       </c>
       <c r="M13" s="0">
-        <v>4.5366331002775375</v>
+        <v>5.3637609901276315</v>
       </c>
       <c r="N13" s="0">
-        <v>4.5424619461002074</v>
+        <v>5.3760083266458061</v>
       </c>
       <c r="O13" s="0">
-        <v>4.5106049925782044</v>
+        <v>5.3505403022307982</v>
       </c>
       <c r="P13" s="0">
-        <v>4.4436337897864622</v>
+        <v>5.2857187492281348</v>
       </c>
       <c r="Q13" s="0">
-        <v>4.3486520726454776</v>
+        <v>5.1858040872315261</v>
       </c>
       <c r="R13" s="0">
-        <v>4.2355379793083072</v>
+        <v>5.060547225914271</v>
       </c>
       <c r="S13" s="0">
-        <v>4.1137463982685594</v>
+        <v>4.9207187533166401</v>
       </c>
       <c r="T13" s="0">
-        <v>3.9908391913783605</v>
+        <v>4.7757927210533282</v>
       </c>
       <c r="U13" s="0">
-        <v>3.8721278269575992</v>
+        <v>4.6330374462909178</v>
       </c>
       <c r="V13" s="0">
-        <v>3.764913658538291</v>
+        <v>4.5011624815762454</v>
       </c>
       <c r="W13" s="0">
-        <v>3.6835533539918526</v>
+        <v>4.3956976982681502</v>
       </c>
       <c r="X13" s="0">
-        <v>3.6257566046474299</v>
+        <v>4.3166252253555824</v>
       </c>
       <c r="Y13" s="0">
-        <v>3.5858490680963566</v>
+        <v>4.2578767647796223</v>
       </c>
       <c r="Z13" s="0">
-        <v>3.5586531482048374</v>
+        <v>4.2091876119222826</v>
       </c>
       <c r="AA13" s="0">
-        <v>3.5401857639397019</v>
+        <v>4.1740463085100634</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>4.4923075176230958</v>
+        <v>6.0843630090047247</v>
       </c>
       <c r="B14" s="0">
-        <v>4.2121043407440899</v>
+        <v>5.6861313509424738</v>
       </c>
       <c r="C14" s="0">
-        <v>3.9681052459669193</v>
+        <v>5.2962185881435628</v>
       </c>
       <c r="D14" s="0">
-        <v>3.8078058651868068</v>
+        <v>5.0683137466736072</v>
       </c>
       <c r="E14" s="0">
-        <v>3.7748128803261203</v>
+        <v>4.9913842122522834</v>
       </c>
       <c r="F14" s="0">
-        <v>3.7316344934341901</v>
+        <v>4.9135272670506778</v>
       </c>
       <c r="G14" s="0">
-        <v>3.6910722890456773</v>
+        <v>4.8382743559342902</v>
       </c>
       <c r="H14" s="0">
-        <v>3.9816451257014829</v>
+        <v>5.0759554155020794</v>
       </c>
       <c r="I14" s="0">
-        <v>4.5510421639583481</v>
+        <v>5.5582856342420008</v>
       </c>
       <c r="J14" s="0">
-        <v>5.0151850618754574</v>
+        <v>5.8715513956082743</v>
       </c>
       <c r="K14" s="0">
-        <v>4.9185537045384597</v>
+        <v>5.6953746590837886</v>
       </c>
       <c r="L14" s="0">
-        <v>4.9031598376899543</v>
+        <v>5.6727038956188363</v>
       </c>
       <c r="M14" s="0">
-        <v>4.9037288391645522</v>
+        <v>5.6895243920171721</v>
       </c>
       <c r="N14" s="0">
-        <v>4.8933404477781686</v>
+        <v>5.699771325586136</v>
       </c>
       <c r="O14" s="0">
-        <v>4.8410646449180019</v>
+        <v>5.6713008381661165</v>
       </c>
       <c r="P14" s="0">
-        <v>4.7598263728199948</v>
+        <v>5.6009054270608383</v>
       </c>
       <c r="Q14" s="0">
-        <v>4.6643592555509468</v>
+        <v>5.5032716320062898</v>
       </c>
       <c r="R14" s="0">
-        <v>4.5529746447894874</v>
+        <v>5.377983215615961</v>
       </c>
       <c r="S14" s="0">
-        <v>4.4347585677636117</v>
+        <v>5.2357282402355496</v>
       </c>
       <c r="T14" s="0">
-        <v>4.2696529079008974</v>
+        <v>5.0864059441907727</v>
       </c>
       <c r="U14" s="0">
-        <v>4.1427153720281424</v>
+        <v>4.9379267425357361</v>
       </c>
       <c r="V14" s="0">
-        <v>4.0358131935178161</v>
+        <v>4.7993201066995974</v>
       </c>
       <c r="W14" s="0">
-        <v>3.955018546058775</v>
+        <v>4.6860203133068827</v>
       </c>
       <c r="X14" s="0">
-        <v>3.8982295074631397</v>
+        <v>4.5906608816025001</v>
       </c>
       <c r="Y14" s="0">
-        <v>3.8593826944243776</v>
+        <v>4.5130529792003209</v>
       </c>
       <c r="Z14" s="0">
-        <v>3.8330635335594838</v>
+        <v>4.4560955051359734</v>
       </c>
       <c r="AA14" s="0">
-        <v>3.8152279243797782</v>
+        <v>4.4144333601061785</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>4.8222834756931308</v>
+        <v>6.213222819348049</v>
       </c>
       <c r="B15" s="0">
-        <v>4.5902583014362808</v>
+        <v>5.865136769345348</v>
       </c>
       <c r="C15" s="0">
-        <v>4.3678679561513052</v>
+        <v>5.5359102790569939</v>
       </c>
       <c r="D15" s="0">
-        <v>4.2421293839211067</v>
+        <v>5.3518558438483686</v>
       </c>
       <c r="E15" s="0">
-        <v>4.2120242151869531</v>
+        <v>5.3058142515091324</v>
       </c>
       <c r="F15" s="0">
-        <v>4.172184377070784</v>
+        <v>5.2519682757546091</v>
       </c>
       <c r="G15" s="0">
-        <v>4.1259128869619488</v>
+        <v>5.1962380348839146</v>
       </c>
       <c r="H15" s="0">
-        <v>4.4052710979494476</v>
+        <v>5.4370282214151873</v>
       </c>
       <c r="I15" s="0">
-        <v>4.9638871472741757</v>
+        <v>5.9152911154604189</v>
       </c>
       <c r="J15" s="0">
-        <v>5.3838477036968921</v>
+        <v>6.2449854780691982</v>
       </c>
       <c r="K15" s="0">
-        <v>5.2541521393725876</v>
+        <v>6.0812060699176662</v>
       </c>
       <c r="L15" s="0">
-        <v>5.2408308832548629</v>
+        <v>6.0530307238161463</v>
       </c>
       <c r="M15" s="0">
-        <v>5.2681488709182789</v>
+        <v>6.0790489318327117</v>
       </c>
       <c r="N15" s="0">
-        <v>5.2843344499120661</v>
+        <v>6.1014703262016559</v>
       </c>
       <c r="O15" s="0">
-        <v>5.254278924090678</v>
+        <v>6.084758950734682</v>
       </c>
       <c r="P15" s="0">
-        <v>5.1777732773845644</v>
+        <v>6.0242452767502908</v>
       </c>
       <c r="Q15" s="0">
-        <v>5.0614780057258759</v>
+        <v>5.9213392251310806</v>
       </c>
       <c r="R15" s="0">
-        <v>4.9172904210964896</v>
+        <v>5.7852767300853785</v>
       </c>
       <c r="S15" s="0">
-        <v>4.7578053582995885</v>
+        <v>5.6279283796448096</v>
       </c>
       <c r="T15" s="0">
-        <v>4.5939503436947344</v>
+        <v>5.4606900648211294</v>
       </c>
       <c r="U15" s="0">
-        <v>4.4343691020559541</v>
+        <v>5.2929434960319846</v>
       </c>
       <c r="V15" s="0">
-        <v>4.2882867710734178</v>
+        <v>5.1352802360751282</v>
       </c>
       <c r="W15" s="0">
-        <v>4.1731317756942312</v>
+        <v>5.0049378103803859</v>
       </c>
       <c r="X15" s="0">
-        <v>4.0880407439550339</v>
+        <v>4.9037604079215562</v>
       </c>
       <c r="Y15" s="0">
-        <v>4.0312025227513555</v>
+        <v>4.8279830341628998</v>
       </c>
       <c r="Z15" s="0">
-        <v>4.0008725298706516</v>
+        <v>4.7722419951809823</v>
       </c>
       <c r="AA15" s="0">
-        <v>3.9805420366570408</v>
+        <v>4.7314970680565924</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>4.187004890163383</v>
+        <v>5.7359911534445001</v>
       </c>
       <c r="B16" s="0">
-        <v>3.9338131563546317</v>
+        <v>5.3280363249767726</v>
       </c>
       <c r="C16" s="0">
-        <v>3.6957620609867816</v>
+        <v>4.9473738287547606</v>
       </c>
       <c r="D16" s="0">
-        <v>3.5616985259838181</v>
+        <v>4.7225481811131775</v>
       </c>
       <c r="E16" s="0">
-        <v>3.5283814356794783</v>
+        <v>4.6451767595057456</v>
       </c>
       <c r="F16" s="0">
-        <v>3.4885445107536524</v>
+        <v>4.564983025283456</v>
       </c>
       <c r="G16" s="0">
-        <v>3.4455482839708838</v>
+        <v>4.4920546981970064</v>
       </c>
       <c r="H16" s="0">
-        <v>3.7280907534894268</v>
+        <v>4.7414305945036244</v>
       </c>
       <c r="I16" s="0">
-        <v>4.2838036314532193</v>
+        <v>5.2367158400720779</v>
       </c>
       <c r="J16" s="0">
-        <v>4.6899300980956662</v>
+        <v>5.5626782957804553</v>
       </c>
       <c r="K16" s="0">
-        <v>4.5483138313665767</v>
+        <v>5.375395573945414</v>
       </c>
       <c r="L16" s="0">
-        <v>4.5226400585873794</v>
+        <v>5.3454122570545231</v>
       </c>
       <c r="M16" s="0">
-        <v>4.5366330940168469</v>
+        <v>5.3637609904342547</v>
       </c>
       <c r="N16" s="0">
-        <v>4.5331999808377974</v>
+        <v>5.3667448047948101</v>
       </c>
       <c r="O16" s="0">
-        <v>4.4644207392613744</v>
+        <v>5.3055684105440619</v>
       </c>
       <c r="P16" s="0">
-        <v>4.3475402328188437</v>
+        <v>5.1937433752109916</v>
       </c>
       <c r="Q16" s="0">
-        <v>4.1953463894914362</v>
+        <v>5.040334534328478</v>
       </c>
       <c r="R16" s="0">
-        <v>4.0205213465343634</v>
+        <v>4.8571895454689216</v>
       </c>
       <c r="S16" s="0">
-        <v>3.8350203835357171</v>
+        <v>4.6570652130765655</v>
       </c>
       <c r="T16" s="0">
-        <v>3.6484726757501811</v>
+        <v>4.4511779962147298</v>
       </c>
       <c r="U16" s="0">
-        <v>3.4676877693049804</v>
+        <v>4.2481355043823239</v>
       </c>
       <c r="V16" s="0">
-        <v>3.3082198219860963</v>
+        <v>4.0650368389851295</v>
       </c>
       <c r="W16" s="0">
-        <v>3.1961255627408791</v>
+        <v>3.9242416016243413</v>
       </c>
       <c r="X16" s="0">
-        <v>3.1150009587425438</v>
+        <v>3.8163714633656332</v>
       </c>
       <c r="Y16" s="0">
-        <v>3.0556800753116584</v>
+        <v>3.7339793272025785</v>
       </c>
       <c r="Z16" s="0">
-        <v>3.0120076653275221</v>
+        <v>3.6708214863766324</v>
       </c>
       <c r="AA16" s="0">
-        <v>2.9791627241339764</v>
+        <v>3.6216549095510522</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>4.4923075176230958</v>
+        <v>6.0843630090047247</v>
       </c>
       <c r="B17" s="0">
-        <v>4.2121043407440899</v>
+        <v>5.6861313509424738</v>
       </c>
       <c r="C17" s="0">
-        <v>3.9681052459669193</v>
+        <v>5.2962185881435628</v>
       </c>
       <c r="D17" s="0">
-        <v>3.8078058651868068</v>
+        <v>5.0683137466736072</v>
       </c>
       <c r="E17" s="0">
-        <v>3.7748128803261203</v>
+        <v>4.9913842122522834</v>
       </c>
       <c r="F17" s="0">
-        <v>3.7316344934341901</v>
+        <v>4.9135272670506778</v>
       </c>
       <c r="G17" s="0">
-        <v>3.6910722890456773</v>
+        <v>4.8382743559342902</v>
       </c>
       <c r="H17" s="0">
-        <v>3.9816451257014829</v>
+        <v>5.0759554155020794</v>
       </c>
       <c r="I17" s="0">
-        <v>4.5510421639583481</v>
+        <v>5.5582856342420008</v>
       </c>
       <c r="J17" s="0">
-        <v>5.0151850618754574</v>
+        <v>5.8715513956082743</v>
       </c>
       <c r="K17" s="0">
-        <v>4.9185537045384597</v>
+        <v>5.6953746590837886</v>
       </c>
       <c r="L17" s="0">
-        <v>4.9031598376899543</v>
+        <v>5.6727038956188363</v>
       </c>
       <c r="M17" s="0">
-        <v>4.9037288137716502</v>
+        <v>5.6895243486646319</v>
       </c>
       <c r="N17" s="0">
-        <v>4.8833394923017339</v>
+        <v>5.6925672755334844</v>
       </c>
       <c r="O17" s="0">
-        <v>4.7935286119085498</v>
+        <v>5.6355973957351395</v>
       </c>
       <c r="P17" s="0">
-        <v>4.6638991304292192</v>
+        <v>5.5257328506123926</v>
       </c>
       <c r="Q17" s="0">
-        <v>4.5104286600039059</v>
+        <v>5.371114126815308</v>
       </c>
       <c r="R17" s="0">
-        <v>4.3360485318633719</v>
+        <v>5.1924384060811759</v>
       </c>
       <c r="S17" s="0">
-        <v>4.1133735988678897</v>
+        <v>4.9947108033631951</v>
       </c>
       <c r="T17" s="0">
-        <v>3.9266614696158939</v>
+        <v>4.7891361795837817</v>
       </c>
       <c r="U17" s="0">
-        <v>3.726115176552947</v>
+        <v>4.5847992244238895</v>
       </c>
       <c r="V17" s="0">
-        <v>3.5521291635188792</v>
+        <v>4.3807051330896547</v>
       </c>
       <c r="W17" s="0">
-        <v>3.4318525219328064</v>
+        <v>4.2203025996928707</v>
       </c>
       <c r="X17" s="0">
-        <v>3.3486289183821585</v>
+        <v>4.1089328263082816</v>
       </c>
       <c r="Y17" s="0">
-        <v>3.2882237507485059</v>
+        <v>4.0130112883090376</v>
       </c>
       <c r="Z17" s="0">
-        <v>3.2382747699636125</v>
+        <v>3.9355140834977234</v>
       </c>
       <c r="AA17" s="0">
-        <v>3.2016889057560625</v>
+        <v>3.8749192834007022</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>4.8222834756931308</v>
+        <v>6.213222819348049</v>
       </c>
       <c r="B18" s="0">
-        <v>4.5902583014362808</v>
+        <v>5.865136769345348</v>
       </c>
       <c r="C18" s="0">
-        <v>4.3678679561513052</v>
+        <v>5.5359102790569939</v>
       </c>
       <c r="D18" s="0">
-        <v>4.2421293839211067</v>
+        <v>5.3518558438483686</v>
       </c>
       <c r="E18" s="0">
-        <v>4.2120242151869531</v>
+        <v>5.3058142515091324</v>
       </c>
       <c r="F18" s="0">
-        <v>4.172184377070784</v>
+        <v>5.2519682757546091</v>
       </c>
       <c r="G18" s="0">
-        <v>4.1259128869619488</v>
+        <v>5.1962380348839146</v>
       </c>
       <c r="H18" s="0">
-        <v>4.4052710979494476</v>
+        <v>5.4370282214151873</v>
       </c>
       <c r="I18" s="0">
-        <v>4.9638871472741757</v>
+        <v>5.9152911154604189</v>
       </c>
       <c r="J18" s="0">
-        <v>5.3838477036968921</v>
+        <v>6.2449854780691982</v>
       </c>
       <c r="K18" s="0">
-        <v>5.2541521393725876</v>
+        <v>6.0812060699176662</v>
       </c>
       <c r="L18" s="0">
-        <v>5.2408308832548629</v>
+        <v>6.0530307238161463</v>
       </c>
       <c r="M18" s="0">
-        <v>5.2681488377984529</v>
+        <v>6.0790489283240383</v>
       </c>
       <c r="N18" s="0">
-        <v>5.2750758907705224</v>
+        <v>6.0929613754769401</v>
       </c>
       <c r="O18" s="0">
-        <v>5.2075068147922172</v>
+        <v>6.0415606929628458</v>
       </c>
       <c r="P18" s="0">
-        <v>5.0796756334308109</v>
+        <v>5.9337661942717235</v>
       </c>
       <c r="Q18" s="0">
-        <v>4.9041713081396079</v>
+        <v>5.7765465096535715</v>
       </c>
       <c r="R18" s="0">
-        <v>4.6958333748879424</v>
+        <v>5.5814314095523709</v>
       </c>
       <c r="S18" s="0">
-        <v>4.4698976184345653</v>
+        <v>5.3622666096906393</v>
       </c>
       <c r="T18" s="0">
-        <v>4.2394550683011136</v>
+        <v>5.1321766870006878</v>
       </c>
       <c r="U18" s="0">
-        <v>4.0146232294588957</v>
+        <v>4.9019094272750987</v>
       </c>
       <c r="V18" s="0">
-        <v>3.8135040832975533</v>
+        <v>4.689723820778414</v>
       </c>
       <c r="W18" s="0">
-        <v>3.665482341515276</v>
+        <v>4.5246362926115635</v>
       </c>
       <c r="X18" s="0">
-        <v>3.5558543339218778</v>
+        <v>4.395706788488468</v>
       </c>
       <c r="Y18" s="0">
-        <v>3.4746669297742061</v>
+        <v>4.295320184882395</v>
       </c>
       <c r="Z18" s="0">
-        <v>3.4145238820301991</v>
+        <v>4.217176029263471</v>
       </c>
       <c r="AA18" s="0">
-        <v>3.3694470393526861</v>
+        <v>4.1556748920217181</v>
       </c>
     </row>
   </sheetData>
